--- a/Soil-Data-Raw-R/Soil-Data-RawFolders/Bulk Density/NCD-bulkdensity-combined-data.xlsx
+++ b/Soil-Data-Raw-R/Soil-Data-RawFolders/Bulk Density/NCD-bulkdensity-combined-data.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="500"/>
+    <workbookView xWindow="9560" yWindow="0" windowWidth="23020" windowHeight="16240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BDDataCombined" sheetId="3" r:id="rId1"/>
     <sheet name="BD nov2014" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="BD july2013" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="85">
   <si>
     <t>Op:NCD</t>
   </si>
@@ -255,16 +254,28 @@
     <t>4 D samples, so can't trust any (no way to tell which one is the "missing" S1 sample</t>
   </si>
   <si>
-    <t>DryWeightToUse</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
     <t>SampleMonth</t>
   </si>
   <si>
-    <t>BulkDensity</t>
+    <t>Volume_mL</t>
+  </si>
+  <si>
+    <t>DryWeightToUse_g</t>
+  </si>
+  <si>
+    <t>BulkDensity_gcm3</t>
+  </si>
+  <si>
+    <t>SampleType</t>
+  </si>
+  <si>
+    <t>Truth bar hole</t>
+  </si>
+  <si>
+    <t>BD ring</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -360,7 +371,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="161">
+  <cellStyleXfs count="199">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -522,8 +533,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -558,7 +607,6 @@
     <xf numFmtId="2" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -584,9 +632,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="161">
+  <cellStyles count="199">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -667,6 +715,25 @@
     <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -747,9 +814,268 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1197,2202 +1523,2735 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G103"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="8.83203125" style="33"/>
-    <col min="3" max="3" width="10.83203125" style="33"/>
-    <col min="4" max="4" width="10.83203125" style="36"/>
-    <col min="5" max="5" width="10.83203125" style="33"/>
-    <col min="6" max="6" width="10.83203125" style="34"/>
-    <col min="7" max="16384" width="10.83203125" style="33"/>
+    <col min="1" max="3" width="10.83203125" style="32"/>
+    <col min="4" max="4" width="10.83203125" style="35"/>
+    <col min="5" max="5" width="10.83203125" style="32"/>
+    <col min="6" max="6" width="10.83203125" style="33"/>
+    <col min="7" max="16384" width="10.83203125" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="33" t="s">
+      <c r="G1" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="32">
+        <v>6541.9400000000005</v>
+      </c>
+      <c r="D2" s="35">
+        <f>25*25*10</f>
+        <v>6250</v>
+      </c>
+      <c r="E2" s="32">
+        <f t="shared" ref="E2:E10" si="0">C2/D2</f>
+        <v>1.0467104</v>
+      </c>
+      <c r="F2" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="32">
+        <v>6298.833333333333</v>
+      </c>
+      <c r="D3" s="35">
+        <f t="shared" ref="D3:D10" si="1">25*25*10</f>
+        <v>6250</v>
+      </c>
+      <c r="E3" s="32">
+        <f t="shared" si="0"/>
+        <v>1.0078133333333332</v>
+      </c>
+      <c r="F3" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="32">
+        <v>5962.59</v>
+      </c>
+      <c r="D4" s="35">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="E4" s="32">
+        <f t="shared" si="0"/>
+        <v>0.95401440000000004</v>
+      </c>
+      <c r="F4" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H4" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="32">
+        <v>9439.5299999999988</v>
+      </c>
+      <c r="D5" s="35">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="E5" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5103247999999998</v>
+      </c>
+      <c r="F5" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H5" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="32">
+        <v>6895.58</v>
+      </c>
+      <c r="D6" s="35">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="E6" s="32">
+        <f t="shared" si="0"/>
+        <v>1.1032928</v>
+      </c>
+      <c r="F6" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="32">
+        <v>9264.3500000000022</v>
+      </c>
+      <c r="D7" s="35">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="E7" s="32">
+        <f t="shared" si="0"/>
+        <v>1.4822960000000003</v>
+      </c>
+      <c r="F7" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="32">
+        <v>9703.4699999999993</v>
+      </c>
+      <c r="D8" s="35">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="E8" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5525551999999998</v>
+      </c>
+      <c r="F8" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="32">
+        <v>9997.65</v>
+      </c>
+      <c r="D9" s="35">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="E9" s="32">
+        <f t="shared" si="0"/>
+        <v>1.5996239999999999</v>
+      </c>
+      <c r="F9" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="32">
+        <v>8278.41</v>
+      </c>
+      <c r="D10" s="35">
+        <f t="shared" si="1"/>
+        <v>6250</v>
+      </c>
+      <c r="E10" s="32">
+        <f t="shared" si="0"/>
+        <v>1.3245456</v>
+      </c>
+      <c r="F10" s="33">
+        <v>7.2012999999999998</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C11" s="32">
         <v>120.9</v>
       </c>
-      <c r="D2" s="36">
-        <v>34</v>
-      </c>
-      <c r="E2" s="33">
-        <f>C2/D2</f>
-        <v>3.5558823529411767</v>
-      </c>
-      <c r="F2" s="34">
+      <c r="D11" s="35">
+        <v>97</v>
+      </c>
+      <c r="E11" s="32">
+        <f>C11/D11</f>
+        <v>1.2463917525773196</v>
+      </c>
+      <c r="F11" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="33" t="s">
+      <c r="H11" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C12" s="32">
         <v>118.7</v>
       </c>
-      <c r="D3" s="36">
-        <v>34</v>
-      </c>
-      <c r="E3" s="33">
-        <f t="shared" ref="E3:E66" si="0">C3/D3</f>
-        <v>3.4911764705882353</v>
-      </c>
-      <c r="F3" s="34">
+      <c r="D12" s="35">
+        <v>97</v>
+      </c>
+      <c r="E12" s="32">
+        <f t="shared" ref="E12:E75" si="2">C12/D12</f>
+        <v>1.2237113402061857</v>
+      </c>
+      <c r="F12" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="H12" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B13" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C13" s="32">
         <v>125.4</v>
       </c>
-      <c r="D4" s="36">
-        <v>34</v>
-      </c>
-      <c r="E4" s="33">
-        <f t="shared" si="0"/>
-        <v>3.6882352941176473</v>
-      </c>
-      <c r="F4" s="34">
+      <c r="D13" s="35">
+        <v>97</v>
+      </c>
+      <c r="E13" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2927835051546392</v>
+      </c>
+      <c r="F13" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="33" t="s">
+      <c r="H13" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B14" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C14" s="32">
         <v>112</v>
       </c>
-      <c r="D5" s="36">
-        <v>34</v>
-      </c>
-      <c r="E5" s="33">
-        <f t="shared" si="0"/>
-        <v>3.2941176470588234</v>
-      </c>
-      <c r="F5" s="34">
+      <c r="D14" s="35">
+        <v>97</v>
+      </c>
+      <c r="E14" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1546391752577319</v>
+      </c>
+      <c r="F14" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="33" t="s">
+      <c r="H14" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B15" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C15" s="32">
         <v>123.7</v>
       </c>
-      <c r="D6" s="36">
-        <v>34</v>
-      </c>
-      <c r="E6" s="33">
-        <f t="shared" si="0"/>
-        <v>3.638235294117647</v>
-      </c>
-      <c r="F6" s="34">
+      <c r="D15" s="35">
+        <v>97</v>
+      </c>
+      <c r="E15" s="32">
+        <f t="shared" si="2"/>
+        <v>1.275257731958763</v>
+      </c>
+      <c r="F15" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="33" t="s">
+      <c r="H15" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B16" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C16" s="32">
         <v>113.5</v>
       </c>
-      <c r="D7" s="36">
-        <v>34</v>
-      </c>
-      <c r="E7" s="33">
-        <f t="shared" si="0"/>
-        <v>3.3382352941176472</v>
-      </c>
-      <c r="F7" s="34">
+      <c r="D16" s="35">
+        <v>97</v>
+      </c>
+      <c r="E16" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1701030927835052</v>
+      </c>
+      <c r="F16" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="33" t="s">
+      <c r="H16" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B17" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C17" s="32">
         <v>136.19999999999999</v>
       </c>
-      <c r="D8" s="36">
-        <v>34</v>
-      </c>
-      <c r="E8" s="33">
-        <f t="shared" si="0"/>
-        <v>4.0058823529411764</v>
-      </c>
-      <c r="F8" s="34">
+      <c r="D17" s="35">
+        <v>97</v>
+      </c>
+      <c r="E17" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4041237113402061</v>
+      </c>
+      <c r="F17" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="33" t="s">
+      <c r="H17" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B18" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C18" s="32">
         <v>130</v>
       </c>
-      <c r="D9" s="36">
-        <v>34</v>
-      </c>
-      <c r="E9" s="33">
-        <f t="shared" si="0"/>
-        <v>3.8235294117647061</v>
-      </c>
-      <c r="F9" s="34">
+      <c r="D18" s="35">
+        <v>97</v>
+      </c>
+      <c r="E18" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3402061855670102</v>
+      </c>
+      <c r="F18" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="33" t="s">
+      <c r="H18" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B19" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C19" s="32">
         <v>129</v>
       </c>
-      <c r="D10" s="36">
-        <v>34</v>
-      </c>
-      <c r="E10" s="33">
-        <f t="shared" si="0"/>
-        <v>3.7941176470588234</v>
-      </c>
-      <c r="F10" s="34">
+      <c r="D19" s="35">
+        <v>97</v>
+      </c>
+      <c r="E19" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3298969072164948</v>
+      </c>
+      <c r="F19" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="33" t="s">
+      <c r="H19" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C20" s="32">
         <v>106.9</v>
       </c>
-      <c r="D11" s="36">
-        <v>34</v>
-      </c>
-      <c r="E11" s="33">
-        <f t="shared" si="0"/>
-        <v>3.1441176470588239</v>
-      </c>
-      <c r="F11" s="34">
+      <c r="D20" s="35">
+        <v>97</v>
+      </c>
+      <c r="E20" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1020618556701032</v>
+      </c>
+      <c r="F20" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="33" t="s">
+      <c r="H20" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B21" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C21" s="32">
         <v>107.6</v>
       </c>
-      <c r="D12" s="36">
-        <v>34</v>
-      </c>
-      <c r="E12" s="33">
-        <f t="shared" si="0"/>
-        <v>3.164705882352941</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="D21" s="35">
+        <v>97</v>
+      </c>
+      <c r="E21" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1092783505154638</v>
+      </c>
+      <c r="F21" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="33" t="s">
+      <c r="H21" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C22" s="32">
         <v>114</v>
       </c>
-      <c r="D13" s="36">
-        <v>34</v>
-      </c>
-      <c r="E13" s="33">
-        <f t="shared" si="0"/>
-        <v>3.3529411764705883</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="D22" s="35">
+        <v>97</v>
+      </c>
+      <c r="E22" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1752577319587629</v>
+      </c>
+      <c r="F22" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="33" t="s">
+      <c r="H22" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B23" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C23" s="32">
         <v>124.7</v>
       </c>
-      <c r="D14" s="36">
-        <v>34</v>
-      </c>
-      <c r="E14" s="33">
-        <f t="shared" si="0"/>
-        <v>3.6676470588235297</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="D23" s="35">
+        <v>97</v>
+      </c>
+      <c r="E23" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2855670103092784</v>
+      </c>
+      <c r="F23" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="33" t="s">
+      <c r="H23" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B24" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C24" s="32">
         <v>108.4</v>
       </c>
-      <c r="D15" s="36">
-        <v>34</v>
-      </c>
-      <c r="E15" s="33">
-        <f t="shared" si="0"/>
-        <v>3.1882352941176473</v>
-      </c>
-      <c r="F15" s="34">
+      <c r="D24" s="35">
+        <v>97</v>
+      </c>
+      <c r="E24" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1175257731958763</v>
+      </c>
+      <c r="F24" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="33" t="s">
+      <c r="H24" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B25" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C25" s="32">
         <v>121.9</v>
       </c>
-      <c r="D16" s="36">
-        <v>34</v>
-      </c>
-      <c r="E16" s="33">
-        <f t="shared" si="0"/>
-        <v>3.585294117647059</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="D25" s="35">
+        <v>97</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="2"/>
+        <v>1.256701030927835</v>
+      </c>
+      <c r="F25" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="33" t="s">
+      <c r="H25" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B26" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C26" s="32">
         <v>117.3</v>
       </c>
-      <c r="D17" s="36">
-        <v>34</v>
-      </c>
-      <c r="E17" s="33">
-        <f t="shared" si="0"/>
-        <v>3.4499999999999997</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="D26" s="35">
+        <v>97</v>
+      </c>
+      <c r="E26" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2092783505154638</v>
+      </c>
+      <c r="F26" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="33" t="s">
+      <c r="H26" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B27" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C27" s="32">
         <v>117.7</v>
       </c>
-      <c r="D18" s="36">
-        <v>34</v>
-      </c>
-      <c r="E18" s="33">
-        <f t="shared" si="0"/>
-        <v>3.4617647058823531</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="D27" s="35">
+        <v>97</v>
+      </c>
+      <c r="E27" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2134020618556702</v>
+      </c>
+      <c r="F27" s="33">
         <v>11.2014</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G27" s="32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="33" t="s">
+      <c r="H27" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B28" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C28" s="32">
         <v>177.8</v>
       </c>
-      <c r="D19" s="36">
-        <v>34</v>
-      </c>
-      <c r="E19" s="33">
-        <f t="shared" si="0"/>
-        <v>5.2294117647058824</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="D28" s="35">
+        <v>97</v>
+      </c>
+      <c r="E28" s="32">
+        <f t="shared" si="2"/>
+        <v>1.8329896907216496</v>
+      </c>
+      <c r="F28" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="33" t="s">
+      <c r="H28" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C29" s="32">
         <v>118.4</v>
       </c>
-      <c r="D20" s="36">
-        <v>34</v>
-      </c>
-      <c r="E20" s="33">
-        <f t="shared" si="0"/>
-        <v>3.4823529411764707</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="D29" s="35">
+        <v>97</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" si="2"/>
+        <v>1.220618556701031</v>
+      </c>
+      <c r="F29" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="33" t="s">
+      <c r="H29" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="33">
+      <c r="C30" s="32">
         <v>125.1</v>
       </c>
-      <c r="D21" s="36">
-        <v>34</v>
-      </c>
-      <c r="E21" s="33">
-        <f t="shared" si="0"/>
-        <v>3.6794117647058822</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="D30" s="35">
+        <v>97</v>
+      </c>
+      <c r="E30" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2896907216494844</v>
+      </c>
+      <c r="F30" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="33" t="s">
+      <c r="H30" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C31" s="32">
         <v>120.9</v>
       </c>
-      <c r="D22" s="36">
-        <v>34</v>
-      </c>
-      <c r="E22" s="33">
-        <f t="shared" si="0"/>
-        <v>3.5558823529411767</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="D31" s="35">
+        <v>97</v>
+      </c>
+      <c r="E31" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2463917525773196</v>
+      </c>
+      <c r="F31" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="33" t="s">
+      <c r="H31" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C32" s="32">
         <v>113.6</v>
       </c>
-      <c r="D23" s="36">
-        <v>34</v>
-      </c>
-      <c r="E23" s="33">
-        <f t="shared" si="0"/>
-        <v>3.341176470588235</v>
-      </c>
-      <c r="F23" s="34">
+      <c r="D32" s="35">
+        <v>97</v>
+      </c>
+      <c r="E32" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1711340206185565</v>
+      </c>
+      <c r="F32" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="33" t="s">
+      <c r="H32" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B33" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C24" s="33">
+      <c r="C33" s="32">
         <v>131.19999999999999</v>
       </c>
-      <c r="D24" s="36">
-        <v>34</v>
-      </c>
-      <c r="E24" s="33">
-        <f t="shared" si="0"/>
-        <v>3.8588235294117643</v>
-      </c>
-      <c r="F24" s="34">
+      <c r="D33" s="35">
+        <v>97</v>
+      </c>
+      <c r="E33" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3525773195876287</v>
+      </c>
+      <c r="F33" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="33" t="s">
+      <c r="H33" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C34" s="32">
         <v>131.5</v>
       </c>
-      <c r="D25" s="36">
-        <v>34</v>
-      </c>
-      <c r="E25" s="33">
-        <f t="shared" si="0"/>
-        <v>3.8676470588235294</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="D34" s="35">
+        <v>97</v>
+      </c>
+      <c r="E34" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3556701030927836</v>
+      </c>
+      <c r="F34" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="33" t="s">
+      <c r="H34" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="33">
+      <c r="C35" s="32">
         <v>128.80000000000001</v>
       </c>
-      <c r="D26" s="36">
-        <v>34</v>
-      </c>
-      <c r="E26" s="33">
-        <f t="shared" si="0"/>
-        <v>3.7882352941176474</v>
-      </c>
-      <c r="F26" s="34">
+      <c r="D35" s="35">
+        <v>97</v>
+      </c>
+      <c r="E35" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3278350515463919</v>
+      </c>
+      <c r="F35" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="33" t="s">
+      <c r="H35" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C36" s="32">
         <v>109.5</v>
       </c>
-      <c r="D27" s="36">
-        <v>34</v>
-      </c>
-      <c r="E27" s="33">
-        <f t="shared" si="0"/>
-        <v>3.2205882352941178</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="D36" s="35">
+        <v>97</v>
+      </c>
+      <c r="E36" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1288659793814433</v>
+      </c>
+      <c r="F36" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="33" t="s">
+      <c r="H36" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B37" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="33">
+      <c r="C37" s="32">
         <v>104.9</v>
       </c>
-      <c r="D28" s="36">
-        <v>34</v>
-      </c>
-      <c r="E28" s="33">
-        <f t="shared" si="0"/>
-        <v>3.085294117647059</v>
-      </c>
-      <c r="F28" s="34">
+      <c r="D37" s="35">
+        <v>97</v>
+      </c>
+      <c r="E37" s="32">
+        <f t="shared" si="2"/>
+        <v>1.0814432989690723</v>
+      </c>
+      <c r="F37" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="33" t="s">
+      <c r="H37" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B38" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C38" s="32">
         <v>116.7</v>
       </c>
-      <c r="D29" s="36">
-        <v>34</v>
-      </c>
-      <c r="E29" s="33">
-        <f t="shared" si="0"/>
-        <v>3.4323529411764708</v>
-      </c>
-      <c r="F29" s="34">
+      <c r="D38" s="35">
+        <v>97</v>
+      </c>
+      <c r="E38" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2030927835051546</v>
+      </c>
+      <c r="F38" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="33" t="s">
+      <c r="H38" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B39" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C30" s="33">
+      <c r="C39" s="32">
         <v>114.9</v>
       </c>
-      <c r="D30" s="36">
-        <v>34</v>
-      </c>
-      <c r="E30" s="33">
-        <f t="shared" si="0"/>
-        <v>3.3794117647058823</v>
-      </c>
-      <c r="F30" s="34">
+      <c r="D39" s="35">
+        <v>97</v>
+      </c>
+      <c r="E39" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1845360824742268</v>
+      </c>
+      <c r="F39" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="33" t="s">
+      <c r="H39" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B40" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C40" s="32">
         <v>104.3</v>
       </c>
-      <c r="D31" s="36">
-        <v>34</v>
-      </c>
-      <c r="E31" s="33">
-        <f t="shared" si="0"/>
-        <v>3.0676470588235292</v>
-      </c>
-      <c r="F31" s="34">
+      <c r="D40" s="35">
+        <v>97</v>
+      </c>
+      <c r="E40" s="32">
+        <f t="shared" si="2"/>
+        <v>1.0752577319587628</v>
+      </c>
+      <c r="F40" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="33" t="s">
+      <c r="H40" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="33">
+      <c r="C41" s="32">
         <v>115.2</v>
       </c>
-      <c r="D32" s="36">
-        <v>34</v>
-      </c>
-      <c r="E32" s="33">
-        <f t="shared" si="0"/>
-        <v>3.388235294117647</v>
-      </c>
-      <c r="F32" s="34">
+      <c r="D41" s="35">
+        <v>97</v>
+      </c>
+      <c r="E41" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1876288659793814</v>
+      </c>
+      <c r="F41" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="33" t="s">
+      <c r="H41" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B42" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C42" s="32">
         <v>124.2</v>
       </c>
-      <c r="D33" s="36">
-        <v>34</v>
-      </c>
-      <c r="E33" s="33">
-        <f t="shared" si="0"/>
-        <v>3.6529411764705881</v>
-      </c>
-      <c r="F33" s="34">
+      <c r="D42" s="35">
+        <v>97</v>
+      </c>
+      <c r="E42" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2804123711340207</v>
+      </c>
+      <c r="F42" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="33" t="s">
+      <c r="H42" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B43" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="33">
+      <c r="C43" s="32">
         <v>120.6</v>
       </c>
-      <c r="D34" s="36">
-        <v>34</v>
-      </c>
-      <c r="E34" s="33">
-        <f t="shared" si="0"/>
-        <v>3.5470588235294116</v>
-      </c>
-      <c r="F34" s="34">
+      <c r="D43" s="35">
+        <v>97</v>
+      </c>
+      <c r="E43" s="32">
+        <f t="shared" si="2"/>
+        <v>1.243298969072165</v>
+      </c>
+      <c r="F43" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="33" t="s">
+      <c r="H43" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B44" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C44" s="32">
         <v>121.3</v>
       </c>
-      <c r="D35" s="36">
-        <v>34</v>
-      </c>
-      <c r="E35" s="33">
-        <f t="shared" si="0"/>
-        <v>3.5676470588235292</v>
-      </c>
-      <c r="F35" s="34">
+      <c r="D44" s="35">
+        <v>97</v>
+      </c>
+      <c r="E44" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2505154639175258</v>
+      </c>
+      <c r="F44" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="33" t="s">
+      <c r="H44" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B45" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C45" s="32">
         <v>126.1</v>
       </c>
-      <c r="D36" s="36">
-        <v>34</v>
-      </c>
-      <c r="E36" s="33">
-        <f t="shared" si="0"/>
-        <v>3.7088235294117644</v>
-      </c>
-      <c r="F36" s="34">
+      <c r="D45" s="35">
+        <v>97</v>
+      </c>
+      <c r="E45" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3</v>
+      </c>
+      <c r="F45" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="33" t="s">
+      <c r="H45" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B37" s="33" t="s">
+      <c r="B46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C46" s="32">
         <v>149.1</v>
       </c>
-      <c r="D37" s="36">
-        <v>34</v>
-      </c>
-      <c r="E37" s="33">
-        <f t="shared" si="0"/>
-        <v>4.3852941176470583</v>
-      </c>
-      <c r="F37" s="34">
+      <c r="D46" s="35">
+        <v>97</v>
+      </c>
+      <c r="E46" s="32">
+        <f t="shared" si="2"/>
+        <v>1.5371134020618555</v>
+      </c>
+      <c r="F46" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="33" t="s">
+      <c r="H46" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B38" s="33" t="s">
+      <c r="B47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C47" s="32">
         <v>150.69999999999999</v>
       </c>
-      <c r="D38" s="36">
-        <v>34</v>
-      </c>
-      <c r="E38" s="33">
-        <f t="shared" si="0"/>
-        <v>4.4323529411764699</v>
-      </c>
-      <c r="F38" s="34">
+      <c r="D47" s="35">
+        <v>97</v>
+      </c>
+      <c r="E47" s="32">
+        <f t="shared" si="2"/>
+        <v>1.5536082474226802</v>
+      </c>
+      <c r="F47" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="33" t="s">
+      <c r="H47" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B48" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C48" s="32">
         <v>141.9</v>
       </c>
-      <c r="D39" s="36">
-        <v>34</v>
-      </c>
-      <c r="E39" s="33">
-        <f t="shared" si="0"/>
-        <v>4.1735294117647062</v>
-      </c>
-      <c r="F39" s="34">
+      <c r="D48" s="35">
+        <v>97</v>
+      </c>
+      <c r="E48" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4628865979381445</v>
+      </c>
+      <c r="F48" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="33" t="s">
+      <c r="H48" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B49" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="33">
+      <c r="C49" s="32">
         <v>140.6</v>
       </c>
-      <c r="D40" s="36">
-        <v>34</v>
-      </c>
-      <c r="E40" s="33">
-        <f t="shared" si="0"/>
-        <v>4.1352941176470583</v>
-      </c>
-      <c r="F40" s="34">
+      <c r="D49" s="35">
+        <v>97</v>
+      </c>
+      <c r="E49" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4494845360824742</v>
+      </c>
+      <c r="F49" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="33" t="s">
+      <c r="H49" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B50" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C41" s="33">
+      <c r="C50" s="32">
         <v>138.30000000000001</v>
       </c>
-      <c r="D41" s="36">
-        <v>34</v>
-      </c>
-      <c r="E41" s="33">
-        <f t="shared" si="0"/>
-        <v>4.0676470588235301</v>
-      </c>
-      <c r="F41" s="34">
+      <c r="D50" s="35">
+        <v>97</v>
+      </c>
+      <c r="E50" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4257731958762887</v>
+      </c>
+      <c r="F50" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="33" t="s">
+      <c r="H50" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B51" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="33">
+      <c r="C51" s="32">
         <v>141.19999999999999</v>
       </c>
-      <c r="D42" s="36">
-        <v>34</v>
-      </c>
-      <c r="E42" s="33">
-        <f t="shared" si="0"/>
-        <v>4.1529411764705877</v>
-      </c>
-      <c r="F42" s="34">
+      <c r="D51" s="35">
+        <v>97</v>
+      </c>
+      <c r="E51" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4556701030927834</v>
+      </c>
+      <c r="F51" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="33" t="s">
+      <c r="H51" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="33" t="s">
+      <c r="B52" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C43" s="33">
+      <c r="C52" s="32">
         <v>135.5</v>
       </c>
-      <c r="D43" s="36">
-        <v>34</v>
-      </c>
-      <c r="E43" s="33">
-        <f t="shared" si="0"/>
-        <v>3.9852941176470589</v>
-      </c>
-      <c r="F43" s="34">
+      <c r="D52" s="35">
+        <v>97</v>
+      </c>
+      <c r="E52" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3969072164948453</v>
+      </c>
+      <c r="F52" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="33" t="s">
+      <c r="H52" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B53" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="33">
+      <c r="C53" s="32">
         <v>129.9</v>
       </c>
-      <c r="D44" s="36">
-        <v>34</v>
-      </c>
-      <c r="E44" s="33">
-        <f t="shared" si="0"/>
-        <v>3.8205882352941178</v>
-      </c>
-      <c r="F44" s="34">
+      <c r="D53" s="35">
+        <v>97</v>
+      </c>
+      <c r="E53" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3391752577319589</v>
+      </c>
+      <c r="F53" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" s="33" t="s">
+      <c r="H53" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B54" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="33">
+      <c r="C54" s="32">
         <v>133.5</v>
       </c>
-      <c r="D45" s="36">
-        <v>34</v>
-      </c>
-      <c r="E45" s="33">
-        <f t="shared" si="0"/>
-        <v>3.9264705882352939</v>
-      </c>
-      <c r="F45" s="34">
+      <c r="D54" s="35">
+        <v>97</v>
+      </c>
+      <c r="E54" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3762886597938144</v>
+      </c>
+      <c r="F54" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="33" t="s">
+      <c r="H54" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B55" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="33">
+      <c r="C55" s="32">
         <v>139.80000000000001</v>
       </c>
-      <c r="D46" s="36">
-        <v>34</v>
-      </c>
-      <c r="E46" s="33">
-        <f t="shared" si="0"/>
-        <v>4.1117647058823534</v>
-      </c>
-      <c r="F46" s="34">
+      <c r="D55" s="35">
+        <v>97</v>
+      </c>
+      <c r="E55" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4412371134020621</v>
+      </c>
+      <c r="F55" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="33" t="s">
+      <c r="H55" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B56" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C47" s="33">
+      <c r="C56" s="32">
         <v>143.69999999999999</v>
       </c>
-      <c r="D47" s="36">
-        <v>34</v>
-      </c>
-      <c r="E47" s="33">
-        <f t="shared" si="0"/>
-        <v>4.2264705882352942</v>
-      </c>
-      <c r="F47" s="34">
+      <c r="D56" s="35">
+        <v>97</v>
+      </c>
+      <c r="E56" s="32">
+        <f t="shared" si="2"/>
+        <v>1.481443298969072</v>
+      </c>
+      <c r="F56" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="33" t="s">
+      <c r="H56" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B48" s="33" t="s">
+      <c r="B57" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="33">
+      <c r="C57" s="32">
         <v>136.5</v>
       </c>
-      <c r="D48" s="36">
-        <v>34</v>
-      </c>
-      <c r="E48" s="33">
-        <f t="shared" si="0"/>
-        <v>4.0147058823529411</v>
-      </c>
-      <c r="F48" s="34">
+      <c r="D57" s="35">
+        <v>97</v>
+      </c>
+      <c r="E57" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4072164948453609</v>
+      </c>
+      <c r="F57" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="33" t="s">
+      <c r="H57" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B49" s="33" t="s">
+      <c r="B58" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C49" s="33">
+      <c r="C58" s="32">
         <v>144.4</v>
       </c>
-      <c r="D49" s="36">
-        <v>34</v>
-      </c>
-      <c r="E49" s="33">
-        <f t="shared" si="0"/>
-        <v>4.2470588235294118</v>
-      </c>
-      <c r="F49" s="34">
+      <c r="D58" s="35">
+        <v>97</v>
+      </c>
+      <c r="E58" s="32">
+        <f t="shared" si="2"/>
+        <v>1.488659793814433</v>
+      </c>
+      <c r="F58" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="33" t="s">
+      <c r="H58" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="33" t="s">
+      <c r="B59" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="33">
+      <c r="C59" s="32">
         <v>125.4</v>
       </c>
-      <c r="D50" s="36">
-        <v>34</v>
-      </c>
-      <c r="E50" s="33">
-        <f t="shared" si="0"/>
-        <v>3.6882352941176473</v>
-      </c>
-      <c r="F50" s="34">
+      <c r="D59" s="35">
+        <v>97</v>
+      </c>
+      <c r="E59" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2927835051546392</v>
+      </c>
+      <c r="F59" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="33" t="s">
+      <c r="H59" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B51" s="33" t="s">
+      <c r="B60" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C51" s="33">
+      <c r="C60" s="32">
         <v>125.1</v>
       </c>
-      <c r="D51" s="36">
-        <v>34</v>
-      </c>
-      <c r="E51" s="33">
-        <f t="shared" si="0"/>
-        <v>3.6794117647058822</v>
-      </c>
-      <c r="F51" s="34">
+      <c r="D60" s="35">
+        <v>97</v>
+      </c>
+      <c r="E60" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2896907216494844</v>
+      </c>
+      <c r="F60" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="33" t="s">
+      <c r="H60" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="33" t="s">
+      <c r="B61" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C52" s="33">
+      <c r="C61" s="32">
         <v>129.9</v>
       </c>
-      <c r="D52" s="36">
-        <v>34</v>
-      </c>
-      <c r="E52" s="33">
-        <f t="shared" si="0"/>
-        <v>3.8205882352941178</v>
-      </c>
-      <c r="F52" s="34">
+      <c r="D61" s="35">
+        <v>97</v>
+      </c>
+      <c r="E61" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3391752577319589</v>
+      </c>
+      <c r="F61" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="33" t="s">
+      <c r="H61" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B53" s="33" t="s">
+      <c r="B62" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C53" s="33">
+      <c r="C62" s="32">
         <v>133.4</v>
       </c>
-      <c r="D53" s="36">
-        <v>34</v>
-      </c>
-      <c r="E53" s="33">
-        <f t="shared" si="0"/>
-        <v>3.9235294117647062</v>
-      </c>
-      <c r="F53" s="34">
+      <c r="D62" s="35">
+        <v>97</v>
+      </c>
+      <c r="E62" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3752577319587629</v>
+      </c>
+      <c r="F62" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="33" t="s">
+      <c r="H62" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="33" t="s">
+      <c r="B63" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C54" s="33">
+      <c r="C63" s="32">
         <v>129.9</v>
       </c>
-      <c r="D54" s="36">
-        <v>34</v>
-      </c>
-      <c r="E54" s="33">
-        <f t="shared" si="0"/>
-        <v>3.8205882352941178</v>
-      </c>
-      <c r="F54" s="34">
+      <c r="D63" s="35">
+        <v>97</v>
+      </c>
+      <c r="E63" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3391752577319589</v>
+      </c>
+      <c r="F63" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="33" t="s">
+      <c r="H63" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="33" t="s">
+      <c r="B64" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="33">
+      <c r="C64" s="32">
         <v>126.9</v>
       </c>
-      <c r="D55" s="36">
-        <v>34</v>
-      </c>
-      <c r="E55" s="33">
-        <f t="shared" si="0"/>
-        <v>3.7323529411764707</v>
-      </c>
-      <c r="F55" s="34">
+      <c r="D64" s="35">
+        <v>97</v>
+      </c>
+      <c r="E64" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3082474226804124</v>
+      </c>
+      <c r="F64" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="33" t="s">
+      <c r="H64" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B56" s="33" t="s">
+      <c r="B65" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="33">
+      <c r="C65" s="32">
         <v>130.5</v>
       </c>
-      <c r="D56" s="36">
-        <v>34</v>
-      </c>
-      <c r="E56" s="33">
-        <f t="shared" si="0"/>
-        <v>3.8382352941176472</v>
-      </c>
-      <c r="F56" s="34">
+      <c r="D65" s="35">
+        <v>97</v>
+      </c>
+      <c r="E65" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3453608247422681</v>
+      </c>
+      <c r="F65" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="33" t="s">
+      <c r="H65" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="33" t="s">
+      <c r="B66" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="33">
+      <c r="C66" s="32">
         <v>129.80000000000001</v>
       </c>
-      <c r="D57" s="36">
-        <v>34</v>
-      </c>
-      <c r="E57" s="33">
-        <f t="shared" si="0"/>
-        <v>3.8176470588235296</v>
-      </c>
-      <c r="F57" s="34">
+      <c r="D66" s="35">
+        <v>97</v>
+      </c>
+      <c r="E66" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3381443298969073</v>
+      </c>
+      <c r="F66" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="33" t="s">
+      <c r="H66" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B67" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="33">
+      <c r="C67" s="32">
         <v>127.1</v>
       </c>
-      <c r="D58" s="36">
-        <v>34</v>
-      </c>
-      <c r="E58" s="33">
-        <f t="shared" si="0"/>
-        <v>3.7382352941176471</v>
-      </c>
-      <c r="F58" s="34">
+      <c r="D67" s="35">
+        <v>97</v>
+      </c>
+      <c r="E67" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3103092783505155</v>
+      </c>
+      <c r="F67" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="33" t="s">
+      <c r="H67" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B59" s="33" t="s">
+      <c r="B68" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C59" s="33">
+      <c r="C68" s="32">
         <v>125.8</v>
       </c>
-      <c r="D59" s="36">
-        <v>34</v>
-      </c>
-      <c r="E59" s="33">
-        <f t="shared" si="0"/>
-        <v>3.6999999999999997</v>
-      </c>
-      <c r="F59" s="34">
+      <c r="D68" s="35">
+        <v>97</v>
+      </c>
+      <c r="E68" s="32">
+        <f t="shared" si="2"/>
+        <v>1.2969072164948454</v>
+      </c>
+      <c r="F68" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="33" t="s">
+      <c r="H68" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B69" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C60" s="33">
+      <c r="C69" s="32">
         <v>150.5</v>
       </c>
-      <c r="D60" s="36">
-        <v>34</v>
-      </c>
-      <c r="E60" s="33">
-        <f t="shared" si="0"/>
-        <v>4.4264705882352944</v>
-      </c>
-      <c r="F60" s="34">
+      <c r="D69" s="35">
+        <v>97</v>
+      </c>
+      <c r="E69" s="32">
+        <f t="shared" si="2"/>
+        <v>1.5515463917525774</v>
+      </c>
+      <c r="F69" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="33" t="s">
+      <c r="H69" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B61" s="33" t="s">
+      <c r="B70" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C61" s="33">
+      <c r="C70" s="32">
         <v>134.4</v>
       </c>
-      <c r="D61" s="36">
-        <v>34</v>
-      </c>
-      <c r="E61" s="33">
-        <f t="shared" si="0"/>
-        <v>3.9529411764705884</v>
-      </c>
-      <c r="F61" s="34">
+      <c r="D70" s="35">
+        <v>97</v>
+      </c>
+      <c r="E70" s="32">
+        <f t="shared" si="2"/>
+        <v>1.3855670103092783</v>
+      </c>
+      <c r="F70" s="33">
         <v>11.2014</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="G70" s="32" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="33" t="s">
+      <c r="H70" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="33" t="s">
+      <c r="B71" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C62" s="33">
+      <c r="C71" s="32">
         <v>156.30000000000001</v>
       </c>
-      <c r="D62" s="36">
-        <v>34</v>
-      </c>
-      <c r="E62" s="33">
-        <f t="shared" si="0"/>
-        <v>4.5970588235294123</v>
-      </c>
-      <c r="F62" s="34">
+      <c r="D71" s="35">
+        <v>97</v>
+      </c>
+      <c r="E71" s="32">
+        <f t="shared" si="2"/>
+        <v>1.6113402061855671</v>
+      </c>
+      <c r="F71" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="33" t="s">
+      <c r="H71" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B63" s="33" t="s">
+      <c r="B72" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="33">
+      <c r="C72" s="32">
         <v>152.6</v>
       </c>
-      <c r="D63" s="36">
-        <v>34</v>
-      </c>
-      <c r="E63" s="33">
-        <f t="shared" si="0"/>
-        <v>4.4882352941176471</v>
-      </c>
-      <c r="F63" s="34">
+      <c r="D72" s="35">
+        <v>97</v>
+      </c>
+      <c r="E72" s="32">
+        <f t="shared" si="2"/>
+        <v>1.5731958762886598</v>
+      </c>
+      <c r="F72" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="33" t="s">
+      <c r="H72" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B64" s="33" t="s">
+      <c r="B73" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="33">
+      <c r="C73" s="32">
         <v>143.4</v>
       </c>
-      <c r="D64" s="36">
-        <v>34</v>
-      </c>
-      <c r="E64" s="33">
-        <f t="shared" si="0"/>
-        <v>4.2176470588235295</v>
-      </c>
-      <c r="F64" s="34">
+      <c r="D73" s="35">
+        <v>97</v>
+      </c>
+      <c r="E73" s="32">
+        <f t="shared" si="2"/>
+        <v>1.4783505154639176</v>
+      </c>
+      <c r="F73" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="33" t="s">
+      <c r="H73" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B65" s="33" t="s">
+      <c r="B74" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="33">
+      <c r="C74" s="32">
         <v>148.80000000000001</v>
       </c>
-      <c r="D65" s="36">
-        <v>34</v>
-      </c>
-      <c r="E65" s="33">
-        <f t="shared" si="0"/>
-        <v>4.3764705882352946</v>
-      </c>
-      <c r="F65" s="34">
+      <c r="D74" s="35">
+        <v>97</v>
+      </c>
+      <c r="E74" s="32">
+        <f t="shared" si="2"/>
+        <v>1.5340206185567011</v>
+      </c>
+      <c r="F74" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="33" t="s">
+      <c r="H74" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B66" s="33" t="s">
+      <c r="B75" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C66" s="33">
+      <c r="C75" s="32">
         <v>149.1</v>
       </c>
-      <c r="D66" s="36">
-        <v>34</v>
-      </c>
-      <c r="E66" s="33">
-        <f t="shared" si="0"/>
-        <v>4.3852941176470583</v>
-      </c>
-      <c r="F66" s="34">
+      <c r="D75" s="35">
+        <v>97</v>
+      </c>
+      <c r="E75" s="32">
+        <f t="shared" si="2"/>
+        <v>1.5371134020618555</v>
+      </c>
+      <c r="F75" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="33" t="s">
+      <c r="H75" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B67" s="33" t="s">
+      <c r="B76" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C67" s="33">
+      <c r="C76" s="32">
         <v>146.19999999999999</v>
       </c>
-      <c r="D67" s="36">
-        <v>34</v>
-      </c>
-      <c r="E67" s="33">
-        <f t="shared" ref="E67:E103" si="1">C67/D67</f>
-        <v>4.3</v>
-      </c>
-      <c r="F67" s="34">
+      <c r="D76" s="35">
+        <v>97</v>
+      </c>
+      <c r="E76" s="32">
+        <f t="shared" ref="E76:E112" si="3">C76/D76</f>
+        <v>1.5072164948453608</v>
+      </c>
+      <c r="F76" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="33" t="s">
+      <c r="H76" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B68" s="33" t="s">
+      <c r="B77" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C68" s="33">
+      <c r="C77" s="32">
         <v>146.1</v>
       </c>
-      <c r="D68" s="36">
-        <v>34</v>
-      </c>
-      <c r="E68" s="33">
-        <f t="shared" si="1"/>
-        <v>4.2970588235294116</v>
-      </c>
-      <c r="F68" s="34">
+      <c r="D77" s="35">
+        <v>97</v>
+      </c>
+      <c r="E77" s="32">
+        <f t="shared" si="3"/>
+        <v>1.5061855670103093</v>
+      </c>
+      <c r="F77" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="33" t="s">
+      <c r="H77" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="33" t="s">
+      <c r="B78" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C69" s="33">
+      <c r="C78" s="32">
         <v>141.9</v>
       </c>
-      <c r="D69" s="36">
-        <v>34</v>
-      </c>
-      <c r="E69" s="33">
-        <f t="shared" si="1"/>
-        <v>4.1735294117647062</v>
-      </c>
-      <c r="F69" s="34">
+      <c r="D78" s="35">
+        <v>97</v>
+      </c>
+      <c r="E78" s="32">
+        <f t="shared" si="3"/>
+        <v>1.4628865979381445</v>
+      </c>
+      <c r="F78" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="33" t="s">
+      <c r="H78" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B70" s="33" t="s">
+      <c r="B79" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C70" s="33">
+      <c r="C79" s="32">
         <v>151.80000000000001</v>
       </c>
-      <c r="D70" s="36">
-        <v>34</v>
-      </c>
-      <c r="E70" s="33">
-        <f t="shared" si="1"/>
-        <v>4.4647058823529413</v>
-      </c>
-      <c r="F70" s="34">
+      <c r="D79" s="35">
+        <v>97</v>
+      </c>
+      <c r="E79" s="32">
+        <f t="shared" si="3"/>
+        <v>1.5649484536082476</v>
+      </c>
+      <c r="F79" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71" s="33" t="s">
+      <c r="H79" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B71" s="33" t="s">
+      <c r="B80" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C71" s="33">
+      <c r="C80" s="32">
         <v>158.1</v>
       </c>
-      <c r="D71" s="36">
-        <v>34</v>
-      </c>
-      <c r="E71" s="33">
-        <f t="shared" si="1"/>
-        <v>4.6499999999999995</v>
-      </c>
-      <c r="F71" s="34">
+      <c r="D80" s="35">
+        <v>97</v>
+      </c>
+      <c r="E80" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6298969072164948</v>
+      </c>
+      <c r="F80" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" s="33" t="s">
+      <c r="H80" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B72" s="33" t="s">
+      <c r="B81" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C72" s="33">
+      <c r="C81" s="32">
         <v>155.19999999999999</v>
       </c>
-      <c r="D72" s="36">
-        <v>34</v>
-      </c>
-      <c r="E72" s="33">
-        <f t="shared" si="1"/>
-        <v>4.5647058823529409</v>
-      </c>
-      <c r="F72" s="34">
+      <c r="D81" s="35">
+        <v>97</v>
+      </c>
+      <c r="E81" s="32">
+        <f t="shared" si="3"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="F81" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73" s="33" t="s">
+      <c r="H81" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B73" s="33" t="s">
+      <c r="B82" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="33">
+      <c r="C82" s="32">
         <v>155.80000000000001</v>
       </c>
-      <c r="D73" s="36">
-        <v>34</v>
-      </c>
-      <c r="E73" s="33">
-        <f t="shared" si="1"/>
-        <v>4.5823529411764712</v>
-      </c>
-      <c r="F73" s="34">
+      <c r="D82" s="35">
+        <v>97</v>
+      </c>
+      <c r="E82" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6061855670103093</v>
+      </c>
+      <c r="F82" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74" s="33" t="s">
+      <c r="H82" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B74" s="33" t="s">
+      <c r="B83" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C74" s="33">
+      <c r="C83" s="32">
         <v>157.30000000000001</v>
       </c>
-      <c r="D74" s="36">
-        <v>34</v>
-      </c>
-      <c r="E74" s="33">
-        <f t="shared" si="1"/>
-        <v>4.6264705882352946</v>
-      </c>
-      <c r="F74" s="34">
+      <c r="D83" s="35">
+        <v>97</v>
+      </c>
+      <c r="E83" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6216494845360825</v>
+      </c>
+      <c r="F83" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" s="33" t="s">
+      <c r="H83" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="33" t="s">
+      <c r="B84" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C75" s="33">
+      <c r="C84" s="32">
         <v>154.5</v>
       </c>
-      <c r="D75" s="36">
-        <v>34</v>
-      </c>
-      <c r="E75" s="33">
-        <f t="shared" si="1"/>
-        <v>4.5441176470588234</v>
-      </c>
-      <c r="F75" s="34">
+      <c r="D84" s="35">
+        <v>97</v>
+      </c>
+      <c r="E84" s="32">
+        <f t="shared" si="3"/>
+        <v>1.5927835051546391</v>
+      </c>
+      <c r="F84" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" s="33" t="s">
+      <c r="H84" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B76" s="33" t="s">
+      <c r="B85" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C76" s="33">
+      <c r="C85" s="32">
         <v>150.19999999999999</v>
       </c>
-      <c r="D76" s="36">
-        <v>34</v>
-      </c>
-      <c r="E76" s="33">
-        <f t="shared" si="1"/>
-        <v>4.4176470588235288</v>
-      </c>
-      <c r="F76" s="34">
+      <c r="D85" s="35">
+        <v>97</v>
+      </c>
+      <c r="E85" s="32">
+        <f t="shared" si="3"/>
+        <v>1.5484536082474225</v>
+      </c>
+      <c r="F85" s="33">
         <v>11.2014</v>
       </c>
-      <c r="G76" s="33" t="s">
+      <c r="G85" s="32" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" s="33" t="s">
+      <c r="H85" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B77" s="33" t="s">
+      <c r="B86" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C77" s="33">
+      <c r="C86" s="32">
         <v>160.30000000000001</v>
       </c>
-      <c r="D77" s="36">
-        <v>34</v>
-      </c>
-      <c r="E77" s="33">
-        <f t="shared" si="1"/>
-        <v>4.7147058823529413</v>
-      </c>
-      <c r="F77" s="34">
+      <c r="D86" s="35">
+        <v>97</v>
+      </c>
+      <c r="E86" s="32">
+        <f t="shared" si="3"/>
+        <v>1.652577319587629</v>
+      </c>
+      <c r="F86" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
-      <c r="A78" s="33" t="s">
+      <c r="H86" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B78" s="33" t="s">
+      <c r="B87" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C78" s="33">
+      <c r="C87" s="32">
         <v>156.30000000000001</v>
       </c>
-      <c r="D78" s="36">
-        <v>34</v>
-      </c>
-      <c r="E78" s="33">
-        <f t="shared" si="1"/>
-        <v>4.5970588235294123</v>
-      </c>
-      <c r="F78" s="34">
+      <c r="D87" s="35">
+        <v>97</v>
+      </c>
+      <c r="E87" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6113402061855671</v>
+      </c>
+      <c r="F87" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
-      <c r="A79" s="33" t="s">
+      <c r="H87" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B79" s="33" t="s">
+      <c r="B88" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="33">
+      <c r="C88" s="32">
         <v>159.4</v>
       </c>
-      <c r="D79" s="36">
-        <v>34</v>
-      </c>
-      <c r="E79" s="33">
-        <f t="shared" si="1"/>
-        <v>4.6882352941176473</v>
-      </c>
-      <c r="F79" s="34">
+      <c r="D88" s="35">
+        <v>97</v>
+      </c>
+      <c r="E88" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6432989690721651</v>
+      </c>
+      <c r="F88" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="33" t="s">
+      <c r="H88" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B80" s="33" t="s">
+      <c r="B89" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="33">
+      <c r="C89" s="32">
         <v>163.30000000000001</v>
       </c>
-      <c r="D80" s="36">
-        <v>34</v>
-      </c>
-      <c r="E80" s="33">
-        <f t="shared" si="1"/>
-        <v>4.8029411764705889</v>
-      </c>
-      <c r="F80" s="34">
+      <c r="D89" s="35">
+        <v>97</v>
+      </c>
+      <c r="E89" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6835051546391753</v>
+      </c>
+      <c r="F89" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
-      <c r="A81" s="33" t="s">
+      <c r="H89" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B81" s="33" t="s">
+      <c r="B90" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="33">
+      <c r="C90" s="32">
         <v>158.4</v>
       </c>
-      <c r="D81" s="36">
-        <v>34</v>
-      </c>
-      <c r="E81" s="33">
-        <f t="shared" si="1"/>
-        <v>4.658823529411765</v>
-      </c>
-      <c r="F81" s="34">
+      <c r="D90" s="35">
+        <v>97</v>
+      </c>
+      <c r="E90" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6329896907216495</v>
+      </c>
+      <c r="F90" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" s="33" t="s">
+      <c r="H90" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B82" s="33" t="s">
+      <c r="B91" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="33">
+      <c r="C91" s="32">
         <v>157.19999999999999</v>
       </c>
-      <c r="D82" s="36">
-        <v>34</v>
-      </c>
-      <c r="E82" s="33">
-        <f t="shared" si="1"/>
-        <v>4.6235294117647054</v>
-      </c>
-      <c r="F82" s="34">
+      <c r="D91" s="35">
+        <v>97</v>
+      </c>
+      <c r="E91" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6206185567010307</v>
+      </c>
+      <c r="F91" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" s="33" t="s">
+      <c r="H91" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="33" t="s">
+      <c r="B92" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="33">
+      <c r="C92" s="32">
         <v>168.3</v>
       </c>
-      <c r="D83" s="36">
-        <v>34</v>
-      </c>
-      <c r="E83" s="33">
-        <f t="shared" si="1"/>
-        <v>4.95</v>
-      </c>
-      <c r="F83" s="34">
+      <c r="D92" s="35">
+        <v>97</v>
+      </c>
+      <c r="E92" s="32">
+        <f t="shared" si="3"/>
+        <v>1.7350515463917526</v>
+      </c>
+      <c r="F92" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" s="33" t="s">
+      <c r="H92" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B84" s="33" t="s">
+      <c r="B93" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C84" s="33">
+      <c r="C93" s="32">
         <v>162.5</v>
       </c>
-      <c r="D84" s="36">
-        <v>34</v>
-      </c>
-      <c r="E84" s="33">
-        <f t="shared" si="1"/>
-        <v>4.7794117647058822</v>
-      </c>
-      <c r="F84" s="34">
+      <c r="D93" s="35">
+        <v>97</v>
+      </c>
+      <c r="E93" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6752577319587629</v>
+      </c>
+      <c r="F93" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" s="33" t="s">
+      <c r="H93" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B85" s="33" t="s">
+      <c r="B94" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="33">
+      <c r="C94" s="32">
         <v>171.8</v>
       </c>
-      <c r="D85" s="36">
-        <v>34</v>
-      </c>
-      <c r="E85" s="33">
-        <f t="shared" si="1"/>
-        <v>5.0529411764705889</v>
-      </c>
-      <c r="F85" s="34">
+      <c r="D94" s="35">
+        <v>97</v>
+      </c>
+      <c r="E94" s="32">
+        <f t="shared" si="3"/>
+        <v>1.7711340206185568</v>
+      </c>
+      <c r="F94" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
-      <c r="A86" s="33" t="s">
+      <c r="H94" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B86" s="33" t="s">
+      <c r="B95" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C86" s="33">
+      <c r="C95" s="32">
         <v>171.2</v>
       </c>
-      <c r="D86" s="36">
-        <v>34</v>
-      </c>
-      <c r="E86" s="33">
-        <f t="shared" si="1"/>
-        <v>5.0352941176470587</v>
-      </c>
-      <c r="F86" s="34">
+      <c r="D95" s="35">
+        <v>97</v>
+      </c>
+      <c r="E95" s="32">
+        <f t="shared" si="3"/>
+        <v>1.7649484536082474</v>
+      </c>
+      <c r="F95" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" s="33" t="s">
+      <c r="H95" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="33" t="s">
+      <c r="B96" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C87" s="33">
+      <c r="C96" s="32">
         <v>169.2</v>
       </c>
-      <c r="D87" s="36">
-        <v>34</v>
-      </c>
-      <c r="E87" s="33">
-        <f t="shared" si="1"/>
-        <v>4.9764705882352942</v>
-      </c>
-      <c r="F87" s="34">
+      <c r="D96" s="35">
+        <v>97</v>
+      </c>
+      <c r="E96" s="32">
+        <f t="shared" si="3"/>
+        <v>1.7443298969072163</v>
+      </c>
+      <c r="F96" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
-      <c r="A88" s="33" t="s">
+      <c r="H96" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B88" s="33" t="s">
+      <c r="B97" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C97" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D88" s="36">
-        <v>34</v>
-      </c>
-      <c r="E88" s="35" t="s">
+      <c r="D97" s="35">
+        <v>97</v>
+      </c>
+      <c r="E97" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F88" s="34">
+      <c r="F97" s="33">
         <v>11.2014</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G97" s="32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" s="33" t="s">
+      <c r="H97" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B89" s="33" t="s">
+      <c r="B98" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C89" s="35" t="s">
+      <c r="C98" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D89" s="36">
-        <v>34</v>
-      </c>
-      <c r="E89" s="35" t="s">
+      <c r="D98" s="35">
+        <v>97</v>
+      </c>
+      <c r="E98" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F89" s="34">
+      <c r="F98" s="33">
         <v>11.2014</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="G98" s="32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" s="33" t="s">
+      <c r="H98" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B90" s="33" t="s">
+      <c r="B99" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C90" s="35" t="s">
+      <c r="C99" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D90" s="36">
-        <v>34</v>
-      </c>
-      <c r="E90" s="35" t="s">
+      <c r="D99" s="35">
+        <v>97</v>
+      </c>
+      <c r="E99" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F90" s="34">
+      <c r="F99" s="33">
         <v>11.2014</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G99" s="32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" s="33" t="s">
+      <c r="H99" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B91" s="33" t="s">
+      <c r="B100" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C91" s="35" t="s">
+      <c r="C100" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="D91" s="36">
-        <v>34</v>
-      </c>
-      <c r="E91" s="35" t="s">
+      <c r="D100" s="35">
+        <v>97</v>
+      </c>
+      <c r="E100" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="F91" s="34">
+      <c r="F100" s="33">
         <v>11.2014</v>
       </c>
-      <c r="G91" s="33" t="s">
+      <c r="G100" s="32" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" s="33" t="s">
+      <c r="H100" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B92" s="33" t="s">
+      <c r="B101" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C92" s="33">
+      <c r="C101" s="32">
         <v>159.19999999999999</v>
       </c>
-      <c r="D92" s="36">
-        <v>34</v>
-      </c>
-      <c r="E92" s="33">
-        <f t="shared" si="1"/>
-        <v>4.6823529411764699</v>
-      </c>
-      <c r="F92" s="34">
+      <c r="D101" s="35">
+        <v>97</v>
+      </c>
+      <c r="E101" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6412371134020618</v>
+      </c>
+      <c r="F101" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" s="33" t="s">
+      <c r="H101" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B93" s="33" t="s">
+      <c r="B102" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="33">
+      <c r="C102" s="32">
         <v>166</v>
       </c>
-      <c r="D93" s="36">
-        <v>34</v>
-      </c>
-      <c r="E93" s="33">
-        <f t="shared" si="1"/>
-        <v>4.882352941176471</v>
-      </c>
-      <c r="F93" s="34">
+      <c r="D102" s="35">
+        <v>97</v>
+      </c>
+      <c r="E102" s="32">
+        <f t="shared" si="3"/>
+        <v>1.7113402061855669</v>
+      </c>
+      <c r="F102" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="33" t="s">
+      <c r="H102" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B94" s="33" t="s">
+      <c r="B103" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C94" s="33">
+      <c r="C103" s="32">
         <v>163.5</v>
       </c>
-      <c r="D94" s="36">
-        <v>34</v>
-      </c>
-      <c r="E94" s="33">
-        <f t="shared" si="1"/>
-        <v>4.8088235294117645</v>
-      </c>
-      <c r="F94" s="34">
+      <c r="D103" s="35">
+        <v>97</v>
+      </c>
+      <c r="E103" s="32">
+        <f t="shared" si="3"/>
+        <v>1.6855670103092784</v>
+      </c>
+      <c r="F103" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="33" t="s">
+      <c r="H103" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B95" s="33" t="s">
+      <c r="B104" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C95" s="33">
+      <c r="C104" s="32">
         <v>129</v>
       </c>
-      <c r="D95" s="36">
-        <v>34</v>
-      </c>
-      <c r="E95" s="33">
-        <f t="shared" si="1"/>
-        <v>3.7941176470588234</v>
-      </c>
-      <c r="F95" s="34">
+      <c r="D104" s="35">
+        <v>97</v>
+      </c>
+      <c r="E104" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3298969072164948</v>
+      </c>
+      <c r="F104" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="33" t="s">
+      <c r="H104" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="33" t="s">
+      <c r="B105" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="33">
+      <c r="C105" s="32">
         <v>124</v>
       </c>
-      <c r="D96" s="36">
-        <v>34</v>
-      </c>
-      <c r="E96" s="33">
-        <f t="shared" si="1"/>
-        <v>3.6470588235294117</v>
-      </c>
-      <c r="F96" s="34">
+      <c r="D105" s="35">
+        <v>97</v>
+      </c>
+      <c r="E105" s="32">
+        <f t="shared" si="3"/>
+        <v>1.2783505154639174</v>
+      </c>
+      <c r="F105" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" s="33" t="s">
+      <c r="H105" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B97" s="33" t="s">
+      <c r="B106" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C97" s="33">
+      <c r="C106" s="32">
         <v>131.69999999999999</v>
       </c>
-      <c r="D97" s="36">
-        <v>34</v>
-      </c>
-      <c r="E97" s="33">
-        <f t="shared" si="1"/>
-        <v>3.8735294117647054</v>
-      </c>
-      <c r="F97" s="34">
+      <c r="D106" s="35">
+        <v>97</v>
+      </c>
+      <c r="E106" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3577319587628864</v>
+      </c>
+      <c r="F106" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="33" t="s">
+      <c r="H106" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B107" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C98" s="33">
+      <c r="C107" s="32">
         <v>126.5</v>
       </c>
-      <c r="D98" s="36">
-        <v>34</v>
-      </c>
-      <c r="E98" s="33">
-        <f t="shared" si="1"/>
-        <v>3.7205882352941178</v>
-      </c>
-      <c r="F98" s="34">
+      <c r="D107" s="35">
+        <v>97</v>
+      </c>
+      <c r="E107" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3041237113402062</v>
+      </c>
+      <c r="F107" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="33" t="s">
+      <c r="H107" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B99" s="33" t="s">
+      <c r="B108" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="33">
+      <c r="C108" s="32">
         <v>129.1</v>
       </c>
-      <c r="D99" s="36">
-        <v>34</v>
-      </c>
-      <c r="E99" s="33">
-        <f t="shared" si="1"/>
-        <v>3.7970588235294116</v>
-      </c>
-      <c r="F99" s="34">
+      <c r="D108" s="35">
+        <v>97</v>
+      </c>
+      <c r="E108" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3309278350515463</v>
+      </c>
+      <c r="F108" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" s="33" t="s">
+      <c r="H108" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B100" s="33" t="s">
+      <c r="B109" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="33">
+      <c r="C109" s="32">
         <v>135.9</v>
       </c>
-      <c r="D100" s="36">
-        <v>34</v>
-      </c>
-      <c r="E100" s="33">
-        <f t="shared" si="1"/>
-        <v>3.9970588235294118</v>
-      </c>
-      <c r="F100" s="34">
+      <c r="D109" s="35">
+        <v>97</v>
+      </c>
+      <c r="E109" s="32">
+        <f t="shared" si="3"/>
+        <v>1.4010309278350517</v>
+      </c>
+      <c r="F109" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" s="33" t="s">
+      <c r="H109" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="33" t="s">
+      <c r="B110" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C101" s="33">
+      <c r="C110" s="32">
         <v>134.69999999999999</v>
       </c>
-      <c r="D101" s="36">
-        <v>34</v>
-      </c>
-      <c r="E101" s="33">
-        <f t="shared" si="1"/>
-        <v>3.9617647058823526</v>
-      </c>
-      <c r="F101" s="34">
+      <c r="D110" s="35">
+        <v>97</v>
+      </c>
+      <c r="E110" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3886597938144329</v>
+      </c>
+      <c r="F110" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" s="33" t="s">
+      <c r="H110" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B102" s="33" t="s">
+      <c r="B111" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="C102" s="33">
+      <c r="C111" s="32">
         <v>126.7</v>
       </c>
-      <c r="D102" s="36">
-        <v>34</v>
-      </c>
-      <c r="E102" s="33">
-        <f t="shared" si="1"/>
-        <v>3.7264705882352942</v>
-      </c>
-      <c r="F102" s="34">
+      <c r="D111" s="35">
+        <v>97</v>
+      </c>
+      <c r="E111" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3061855670103093</v>
+      </c>
+      <c r="F111" s="33">
         <v>11.2014</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" s="33" t="s">
+      <c r="H111" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B103" s="33" t="s">
+      <c r="B112" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="33">
+      <c r="C112" s="32">
         <v>131.30000000000001</v>
       </c>
-      <c r="D103" s="36">
-        <v>34</v>
-      </c>
-      <c r="E103" s="33">
-        <f t="shared" si="1"/>
-        <v>3.8617647058823534</v>
-      </c>
-      <c r="F103" s="34">
+      <c r="D112" s="35">
+        <v>97</v>
+      </c>
+      <c r="E112" s="32">
+        <f t="shared" si="3"/>
+        <v>1.3536082474226805</v>
+      </c>
+      <c r="F112" s="33">
         <v>11.2014</v>
+      </c>
+      <c r="H112" s="32" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3452,13 +4311,13 @@
       <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="31">
         <v>143.9</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
         <v>120.9</v>
       </c>
-      <c r="F2" s="32">
+      <c r="F2" s="31">
         <v>120.9</v>
       </c>
       <c r="I2" t="s">
@@ -3478,13 +4337,13 @@
       <c r="C3" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="31">
         <v>141.30000000000001</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="31">
         <v>118.7</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="31">
         <v>118.7</v>
       </c>
       <c r="I3" t="s">
@@ -3507,13 +4366,13 @@
       <c r="C4" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="31">
         <v>152.30000000000001</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="31">
         <v>125.4</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="31">
         <v>125.4</v>
       </c>
       <c r="I4" t="s">
@@ -3533,13 +4392,13 @@
       <c r="C5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="31">
         <v>130.6</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5" s="31">
         <v>112</v>
       </c>
-      <c r="F5" s="32">
+      <c r="F5" s="31">
         <v>112</v>
       </c>
       <c r="I5" t="s">
@@ -3559,13 +4418,13 @@
       <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="31">
         <v>143.4</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="31">
         <v>123.7</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="31">
         <v>123.7</v>
       </c>
       <c r="I6" t="s">
@@ -3585,13 +4444,13 @@
       <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7" s="31">
         <v>133.9</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="31">
         <v>113.5</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="31">
         <v>113.5</v>
       </c>
       <c r="I7" t="s">
@@ -3611,13 +4470,13 @@
       <c r="C8" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="31">
         <v>161.19999999999999</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="31">
         <v>136.19999999999999</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="31">
         <v>136.19999999999999</v>
       </c>
       <c r="I8" t="s">
@@ -3637,13 +4496,13 @@
       <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="31">
         <v>151.69999999999999</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="31">
         <v>130</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="31">
         <v>130</v>
       </c>
       <c r="I9" t="s">
@@ -3663,13 +4522,13 @@
       <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="31">
         <v>151.5</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="31">
         <v>129</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="31">
         <v>129</v>
       </c>
       <c r="I10" t="s">
@@ -3692,13 +4551,13 @@
       <c r="C11" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="31">
         <v>130.80000000000001</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="31">
         <v>106.9</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="31">
         <v>106.9</v>
       </c>
     </row>
@@ -3712,13 +4571,13 @@
       <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>127.5</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="31">
         <v>107.6</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>107.6</v>
       </c>
       <c r="I12" t="s">
@@ -3735,13 +4594,13 @@
       <c r="C13" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="31">
         <v>138.1</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="31">
         <v>114</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="31">
         <v>114</v>
       </c>
       <c r="I13" t="s">
@@ -3758,13 +4617,13 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="31">
         <v>148</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="31">
         <v>124.7</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="31">
         <v>124.7</v>
       </c>
       <c r="I14" t="s">
@@ -3781,13 +4640,13 @@
       <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>129.1</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="31">
         <v>108.4</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="31">
         <v>108.4</v>
       </c>
     </row>
@@ -3801,13 +4660,13 @@
       <c r="C16" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="31">
         <v>143.5</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="31">
         <v>121.9</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="31">
         <v>121.9</v>
       </c>
     </row>
@@ -3821,13 +4680,13 @@
       <c r="C17" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="31">
         <v>135</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="31">
         <v>117.3</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="31">
         <v>117.3</v>
       </c>
     </row>
@@ -3841,13 +4700,13 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <v>136.4</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="31">
         <v>117.7</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <v>117.7</v>
       </c>
       <c r="G18" t="s">
@@ -3864,13 +4723,13 @@
       <c r="C19" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>139.1</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="31">
         <v>177.8</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="31">
         <v>177.8</v>
       </c>
     </row>
@@ -3884,13 +4743,13 @@
       <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="31">
         <v>137.5</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="31">
         <v>118.4</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>118.4</v>
       </c>
     </row>
@@ -3904,13 +4763,13 @@
       <c r="C21" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>143.6</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="31">
         <v>125.1</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>125.1</v>
       </c>
     </row>
@@ -3924,13 +4783,13 @@
       <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="32">
+      <c r="D22" s="31">
         <v>139.4</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="31">
         <v>120.9</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <v>120.9</v>
       </c>
     </row>
@@ -3944,13 +4803,13 @@
       <c r="C23" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="32">
+      <c r="D23" s="31">
         <v>132.80000000000001</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="31">
         <v>113.6</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <v>113.6</v>
       </c>
     </row>
@@ -3964,13 +4823,13 @@
       <c r="C24" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <v>152.5</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="31">
         <v>131.19999999999999</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <v>131.19999999999999</v>
       </c>
     </row>
@@ -3984,13 +4843,13 @@
       <c r="C25" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="31">
         <v>152.9</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="31">
         <v>131.5</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>131.5</v>
       </c>
     </row>
@@ -4004,13 +4863,13 @@
       <c r="C26" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="32">
+      <c r="D26" s="31">
         <v>149.80000000000001</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="31">
         <v>128.80000000000001</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <v>128.80000000000001</v>
       </c>
     </row>
@@ -4024,13 +4883,13 @@
       <c r="C27" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <v>130.80000000000001</v>
       </c>
-      <c r="E27" s="32">
+      <c r="E27" s="31">
         <v>109.5</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="31">
         <v>109.5</v>
       </c>
     </row>
@@ -4044,13 +4903,13 @@
       <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="32">
+      <c r="D28" s="31">
         <v>124.1</v>
       </c>
-      <c r="E28" s="32">
+      <c r="E28" s="31">
         <v>104.9</v>
       </c>
-      <c r="F28" s="32">
+      <c r="F28" s="31">
         <v>104.9</v>
       </c>
     </row>
@@ -4064,13 +4923,13 @@
       <c r="C29" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="32">
+      <c r="D29" s="31">
         <v>139.4</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="31">
         <v>116.7</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
         <v>116.7</v>
       </c>
     </row>
@@ -4084,13 +4943,13 @@
       <c r="C30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <v>138.1</v>
       </c>
-      <c r="E30" s="32">
+      <c r="E30" s="31">
         <v>114.9</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="31">
         <v>114.9</v>
       </c>
     </row>
@@ -4104,13 +4963,13 @@
       <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="32">
+      <c r="D31" s="31">
         <v>124.1</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="31">
         <v>104.3</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="31">
         <v>104.3</v>
       </c>
     </row>
@@ -4124,13 +4983,13 @@
       <c r="C32" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="32">
+      <c r="D32" s="31">
         <v>140.30000000000001</v>
       </c>
-      <c r="E32" s="32">
+      <c r="E32" s="31">
         <v>115.2</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>115.2</v>
       </c>
     </row>
@@ -4144,13 +5003,13 @@
       <c r="C33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>155</v>
       </c>
-      <c r="E33" s="32">
+      <c r="E33" s="31">
         <v>124.2</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <v>124.2</v>
       </c>
     </row>
@@ -4164,13 +5023,13 @@
       <c r="C34" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="32">
+      <c r="D34" s="31">
         <v>144</v>
       </c>
-      <c r="E34" s="32">
+      <c r="E34" s="31">
         <v>120.6</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>120.6</v>
       </c>
     </row>
@@ -4184,13 +5043,13 @@
       <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="D35" s="32">
+      <c r="D35" s="31">
         <v>144</v>
       </c>
-      <c r="E35" s="32">
+      <c r="E35" s="31">
         <v>121.3</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="31">
         <v>121.3</v>
       </c>
     </row>
@@ -4204,13 +5063,13 @@
       <c r="C36" t="s">
         <v>40</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>142.19999999999999</v>
       </c>
-      <c r="E36" s="32">
+      <c r="E36" s="31">
         <v>126.1</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="31">
         <v>126.1</v>
       </c>
     </row>
@@ -4224,13 +5083,13 @@
       <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="31">
         <v>172.1</v>
       </c>
-      <c r="E37" s="32">
+      <c r="E37" s="31">
         <v>149.1</v>
       </c>
-      <c r="F37" s="32">
+      <c r="F37" s="31">
         <v>149.1</v>
       </c>
     </row>
@@ -4244,13 +5103,13 @@
       <c r="C38" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="31">
         <v>177</v>
       </c>
-      <c r="E38" s="32">
+      <c r="E38" s="31">
         <v>150.69999999999999</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="31">
         <v>150.69999999999999</v>
       </c>
     </row>
@@ -4264,13 +5123,13 @@
       <c r="C39" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="31">
         <v>168.4</v>
       </c>
-      <c r="E39" s="32">
+      <c r="E39" s="31">
         <v>141.9</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="31">
         <v>141.9</v>
       </c>
     </row>
@@ -4284,13 +5143,13 @@
       <c r="C40" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="31">
         <v>167.9</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="31">
         <v>140.6</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="31">
         <v>140.6</v>
       </c>
     </row>
@@ -4304,13 +5163,13 @@
       <c r="C41" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>164.1</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="31">
         <v>138.30000000000001</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="31">
         <v>138.30000000000001</v>
       </c>
     </row>
@@ -4324,13 +5183,13 @@
       <c r="C42" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="31">
         <v>167.6</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="31">
         <v>141.19999999999999</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="31">
         <v>141.19999999999999</v>
       </c>
     </row>
@@ -4344,13 +5203,13 @@
       <c r="C43" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <v>160.19999999999999</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="31">
         <v>135.5</v>
       </c>
-      <c r="F43" s="32">
+      <c r="F43" s="31">
         <v>135.5</v>
       </c>
     </row>
@@ -4364,13 +5223,13 @@
       <c r="C44" t="s">
         <v>36</v>
       </c>
-      <c r="D44" s="32">
+      <c r="D44" s="31">
         <v>153.6</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="31">
         <v>129.9</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="31">
         <v>129.9</v>
       </c>
     </row>
@@ -4384,13 +5243,13 @@
       <c r="C45" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="32">
+      <c r="D45" s="31">
         <v>157.9</v>
       </c>
-      <c r="E45" s="32">
+      <c r="E45" s="31">
         <v>133.5</v>
       </c>
-      <c r="F45" s="32">
+      <c r="F45" s="31">
         <v>133.5</v>
       </c>
     </row>
@@ -4404,13 +5263,13 @@
       <c r="C46" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="32">
+      <c r="D46" s="31">
         <v>165.2</v>
       </c>
-      <c r="E46" s="32">
+      <c r="E46" s="31">
         <v>139.80000000000001</v>
       </c>
-      <c r="F46" s="32">
+      <c r="F46" s="31">
         <v>139.80000000000001</v>
       </c>
     </row>
@@ -4424,13 +5283,13 @@
       <c r="C47" t="s">
         <v>39</v>
       </c>
-      <c r="D47" s="32">
+      <c r="D47" s="31">
         <v>169.4</v>
       </c>
-      <c r="E47" s="32">
+      <c r="E47" s="31">
         <v>143.69999999999999</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="31">
         <v>143.69999999999999</v>
       </c>
     </row>
@@ -4444,13 +5303,13 @@
       <c r="C48" t="s">
         <v>40</v>
       </c>
-      <c r="D48" s="32">
+      <c r="D48" s="31">
         <v>161.30000000000001</v>
       </c>
-      <c r="E48" s="32">
+      <c r="E48" s="31">
         <v>136.5</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="31">
         <v>136.5</v>
       </c>
     </row>
@@ -4464,13 +5323,13 @@
       <c r="C49" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="32">
+      <c r="D49" s="31">
         <v>172</v>
       </c>
-      <c r="E49" s="32">
+      <c r="E49" s="31">
         <v>144.4</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="31">
         <v>144.4</v>
       </c>
     </row>
@@ -4484,13 +5343,13 @@
       <c r="C50" t="s">
         <v>38</v>
       </c>
-      <c r="D50" s="32">
+      <c r="D50" s="31">
         <v>160.80000000000001</v>
       </c>
-      <c r="E50" s="32">
+      <c r="E50" s="31">
         <v>125.4</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <v>125.4</v>
       </c>
     </row>
@@ -4504,13 +5363,13 @@
       <c r="C51" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="31">
         <v>158.9</v>
       </c>
-      <c r="E51" s="32">
+      <c r="E51" s="31">
         <v>125.1</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="31">
         <v>125.1</v>
       </c>
     </row>
@@ -4524,13 +5383,13 @@
       <c r="C52" t="s">
         <v>37</v>
       </c>
-      <c r="D52" s="32">
+      <c r="D52" s="31">
         <v>164.3</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="31">
         <v>129.9</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="31">
         <v>129.9</v>
       </c>
     </row>
@@ -4544,13 +5403,13 @@
       <c r="C53" t="s">
         <v>37</v>
       </c>
-      <c r="D53" s="32">
+      <c r="D53" s="31">
         <v>160.19999999999999</v>
       </c>
-      <c r="E53" s="32">
+      <c r="E53" s="31">
         <v>133.4</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="31">
         <v>133.4</v>
       </c>
     </row>
@@ -4564,13 +5423,13 @@
       <c r="C54" t="s">
         <v>36</v>
       </c>
-      <c r="D54" s="32">
+      <c r="D54" s="31">
         <v>164.9</v>
       </c>
-      <c r="E54" s="32">
+      <c r="E54" s="31">
         <v>129.9</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="31">
         <v>129.9</v>
       </c>
     </row>
@@ -4584,13 +5443,13 @@
       <c r="C55" t="s">
         <v>36</v>
       </c>
-      <c r="D55" s="32">
+      <c r="D55" s="31">
         <v>160.69999999999999</v>
       </c>
-      <c r="E55" s="32">
+      <c r="E55" s="31">
         <v>126.9</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="31">
         <v>126.9</v>
       </c>
     </row>
@@ -4604,13 +5463,13 @@
       <c r="C56" t="s">
         <v>39</v>
       </c>
-      <c r="D56" s="32">
+      <c r="D56" s="31">
         <v>164.1</v>
       </c>
-      <c r="E56" s="32">
+      <c r="E56" s="31">
         <v>130.5</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="31">
         <v>130.5</v>
       </c>
     </row>
@@ -4624,13 +5483,13 @@
       <c r="C57" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="32">
+      <c r="D57" s="31">
         <v>163.80000000000001</v>
       </c>
-      <c r="E57" s="32">
+      <c r="E57" s="31">
         <v>129.80000000000001</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="31">
         <v>129.80000000000001</v>
       </c>
     </row>
@@ -4644,13 +5503,13 @@
       <c r="C58" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="32">
+      <c r="D58" s="31">
         <v>161.6</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="31">
         <v>127.1</v>
       </c>
-      <c r="F58" s="32">
+      <c r="F58" s="31">
         <v>127.1</v>
       </c>
     </row>
@@ -4664,13 +5523,13 @@
       <c r="C59" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="32">
+      <c r="D59" s="31">
         <v>160.1</v>
       </c>
-      <c r="E59" s="32">
+      <c r="E59" s="31">
         <v>125.8</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="31">
         <v>125.8</v>
       </c>
     </row>
@@ -4684,13 +5543,13 @@
       <c r="C60" t="s">
         <v>38</v>
       </c>
-      <c r="D60" s="32">
+      <c r="D60" s="31">
         <v>177.7</v>
       </c>
-      <c r="E60" s="32">
+      <c r="E60" s="31">
         <v>150.5</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="31">
         <v>150.5</v>
       </c>
     </row>
@@ -4704,13 +5563,13 @@
       <c r="C61" t="s">
         <v>38</v>
       </c>
-      <c r="D61" s="32">
+      <c r="D61" s="31">
         <v>159.19999999999999</v>
       </c>
-      <c r="E61" s="32">
+      <c r="E61" s="31">
         <v>134.4</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="31">
         <v>134.4</v>
       </c>
       <c r="G61" t="s">
@@ -4727,13 +5586,13 @@
       <c r="C62" t="s">
         <v>37</v>
       </c>
-      <c r="D62" s="32">
+      <c r="D62" s="31">
         <v>179.1</v>
       </c>
-      <c r="E62" s="32">
+      <c r="E62" s="31">
         <v>156.30000000000001</v>
       </c>
-      <c r="F62" s="32">
+      <c r="F62" s="31">
         <v>156.30000000000001</v>
       </c>
     </row>
@@ -4747,13 +5606,13 @@
       <c r="C63" t="s">
         <v>37</v>
       </c>
-      <c r="D63" s="32">
+      <c r="D63" s="31">
         <v>173.5</v>
       </c>
-      <c r="E63" s="32">
+      <c r="E63" s="31">
         <v>152.6</v>
       </c>
-      <c r="F63" s="32">
+      <c r="F63" s="31">
         <v>152.6</v>
       </c>
     </row>
@@ -4767,13 +5626,13 @@
       <c r="C64" t="s">
         <v>36</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="31">
         <v>160.1</v>
       </c>
-      <c r="E64" s="32">
+      <c r="E64" s="31">
         <v>143.4</v>
       </c>
-      <c r="F64" s="32">
+      <c r="F64" s="31">
         <v>143.4</v>
       </c>
     </row>
@@ -4787,13 +5646,13 @@
       <c r="C65" t="s">
         <v>36</v>
       </c>
-      <c r="D65" s="32">
+      <c r="D65" s="31">
         <v>165.9</v>
       </c>
-      <c r="E65" s="32">
+      <c r="E65" s="31">
         <v>148.80000000000001</v>
       </c>
-      <c r="F65" s="32">
+      <c r="F65" s="31">
         <v>148.80000000000001</v>
       </c>
     </row>
@@ -4807,13 +5666,13 @@
       <c r="C66" t="s">
         <v>39</v>
       </c>
-      <c r="D66" s="32">
+      <c r="D66" s="31">
         <v>167</v>
       </c>
-      <c r="E66" s="32">
+      <c r="E66" s="31">
         <v>149.1</v>
       </c>
-      <c r="F66" s="32">
+      <c r="F66" s="31">
         <v>149.1</v>
       </c>
     </row>
@@ -4827,13 +5686,13 @@
       <c r="C67" t="s">
         <v>39</v>
       </c>
-      <c r="D67" s="32">
+      <c r="D67" s="31">
         <v>164.7</v>
       </c>
-      <c r="E67" s="32">
+      <c r="E67" s="31">
         <v>146.19999999999999</v>
       </c>
-      <c r="F67" s="32">
+      <c r="F67" s="31">
         <v>146.19999999999999</v>
       </c>
     </row>
@@ -4847,13 +5706,13 @@
       <c r="C68" t="s">
         <v>40</v>
       </c>
-      <c r="D68" s="32">
+      <c r="D68" s="31">
         <v>166.2</v>
       </c>
-      <c r="E68" s="32">
+      <c r="E68" s="31">
         <v>146.1</v>
       </c>
-      <c r="F68" s="32">
+      <c r="F68" s="31">
         <v>146.1</v>
       </c>
     </row>
@@ -4867,13 +5726,13 @@
       <c r="C69" t="s">
         <v>40</v>
       </c>
-      <c r="D69" s="32">
+      <c r="D69" s="31">
         <v>163.80000000000001</v>
       </c>
-      <c r="E69" s="32">
+      <c r="E69" s="31">
         <v>141.9</v>
       </c>
-      <c r="F69" s="32">
+      <c r="F69" s="31">
         <v>141.9</v>
       </c>
     </row>
@@ -4887,13 +5746,13 @@
       <c r="C70" t="s">
         <v>38</v>
       </c>
-      <c r="D70" s="32">
+      <c r="D70" s="31">
         <v>179.6</v>
       </c>
-      <c r="E70" s="32">
+      <c r="E70" s="31">
         <v>151.80000000000001</v>
       </c>
-      <c r="F70" s="32">
+      <c r="F70" s="31">
         <v>151.80000000000001</v>
       </c>
     </row>
@@ -4907,13 +5766,13 @@
       <c r="C71" t="s">
         <v>38</v>
       </c>
-      <c r="D71" s="32">
+      <c r="D71" s="31">
         <v>186.4</v>
       </c>
-      <c r="E71" s="32">
+      <c r="E71" s="31">
         <v>158.1</v>
       </c>
-      <c r="F71" s="32">
+      <c r="F71" s="31">
         <v>158.1</v>
       </c>
     </row>
@@ -4927,13 +5786,13 @@
       <c r="C72" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D72" s="31">
         <v>182.8</v>
       </c>
-      <c r="E72" s="32">
+      <c r="E72" s="31">
         <v>155.19999999999999</v>
       </c>
-      <c r="F72" s="32">
+      <c r="F72" s="31">
         <v>155.19999999999999</v>
       </c>
     </row>
@@ -4947,13 +5806,13 @@
       <c r="C73" t="s">
         <v>37</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="31">
         <v>184.2</v>
       </c>
-      <c r="E73" s="32">
+      <c r="E73" s="31">
         <v>155.80000000000001</v>
       </c>
-      <c r="F73" s="32">
+      <c r="F73" s="31">
         <v>155.80000000000001</v>
       </c>
     </row>
@@ -4967,13 +5826,13 @@
       <c r="C74" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="31">
         <v>185.6</v>
       </c>
-      <c r="E74" s="32">
+      <c r="E74" s="31">
         <v>157.30000000000001</v>
       </c>
-      <c r="F74" s="32">
+      <c r="F74" s="31">
         <v>157.30000000000001</v>
       </c>
     </row>
@@ -4987,13 +5846,13 @@
       <c r="C75" t="s">
         <v>36</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="31">
         <v>182.8</v>
       </c>
-      <c r="E75" s="32">
+      <c r="E75" s="31">
         <v>154.5</v>
       </c>
-      <c r="F75" s="32">
+      <c r="F75" s="31">
         <v>154.5</v>
       </c>
     </row>
@@ -5007,13 +5866,13 @@
       <c r="C76" t="s">
         <v>39</v>
       </c>
-      <c r="D76" s="32">
+      <c r="D76" s="31">
         <v>178.3</v>
       </c>
-      <c r="E76" s="32">
+      <c r="E76" s="31">
         <v>150.19999999999999</v>
       </c>
-      <c r="F76" s="32">
+      <c r="F76" s="31">
         <v>150.19999999999999</v>
       </c>
       <c r="G76" t="s">
@@ -5030,13 +5889,13 @@
       <c r="C77" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="32">
+      <c r="D77" s="31">
         <v>187.6</v>
       </c>
-      <c r="E77" s="32">
+      <c r="E77" s="31">
         <v>160.30000000000001</v>
       </c>
-      <c r="F77" s="32">
+      <c r="F77" s="31">
         <v>160.30000000000001</v>
       </c>
     </row>
@@ -5050,13 +5909,13 @@
       <c r="C78" t="s">
         <v>40</v>
       </c>
-      <c r="D78" s="32">
+      <c r="D78" s="31">
         <v>183.9</v>
       </c>
-      <c r="E78" s="32">
+      <c r="E78" s="31">
         <v>156.30000000000001</v>
       </c>
-      <c r="F78" s="32">
+      <c r="F78" s="31">
         <v>156.30000000000001</v>
       </c>
     </row>
@@ -5070,13 +5929,13 @@
       <c r="C79" t="s">
         <v>38</v>
       </c>
-      <c r="D79" s="32">
+      <c r="D79" s="31">
         <v>178.9</v>
       </c>
-      <c r="E79" s="32">
+      <c r="E79" s="31">
         <v>159.4</v>
       </c>
-      <c r="F79" s="32">
+      <c r="F79" s="31">
         <v>159.4</v>
       </c>
     </row>
@@ -5090,13 +5949,13 @@
       <c r="C80" t="s">
         <v>38</v>
       </c>
-      <c r="D80" s="32">
+      <c r="D80" s="31">
         <v>182.1</v>
       </c>
-      <c r="E80" s="32">
+      <c r="E80" s="31">
         <v>163.30000000000001</v>
       </c>
-      <c r="F80" s="32">
+      <c r="F80" s="31">
         <v>163.30000000000001</v>
       </c>
     </row>
@@ -5110,13 +5969,13 @@
       <c r="C81" t="s">
         <v>38</v>
       </c>
-      <c r="D81" s="32">
+      <c r="D81" s="31">
         <v>174.4</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="31">
         <v>158.4</v>
       </c>
-      <c r="F81" s="32">
+      <c r="F81" s="31">
         <v>158.4</v>
       </c>
     </row>
@@ -5130,13 +5989,13 @@
       <c r="C82" t="s">
         <v>37</v>
       </c>
-      <c r="D82" s="32">
+      <c r="D82" s="31">
         <v>173.7</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="31">
         <v>157.19999999999999</v>
       </c>
-      <c r="F82" s="32">
+      <c r="F82" s="31">
         <v>157.19999999999999</v>
       </c>
     </row>
@@ -5150,13 +6009,13 @@
       <c r="C83" t="s">
         <v>37</v>
       </c>
-      <c r="D83" s="32">
+      <c r="D83" s="31">
         <v>185.7</v>
       </c>
-      <c r="E83" s="32">
+      <c r="E83" s="31">
         <v>168.3</v>
       </c>
-      <c r="F83" s="32">
+      <c r="F83" s="31">
         <v>168.3</v>
       </c>
     </row>
@@ -5170,13 +6029,13 @@
       <c r="C84" t="s">
         <v>37</v>
       </c>
-      <c r="D84" s="32">
+      <c r="D84" s="31">
         <v>178.6</v>
       </c>
-      <c r="E84" s="32">
+      <c r="E84" s="31">
         <v>162.5</v>
       </c>
-      <c r="F84" s="32">
+      <c r="F84" s="31">
         <v>162.5</v>
       </c>
     </row>
@@ -5190,13 +6049,13 @@
       <c r="C85" t="s">
         <v>36</v>
       </c>
-      <c r="D85" s="32">
+      <c r="D85" s="31">
         <v>189.9</v>
       </c>
-      <c r="E85" s="32">
+      <c r="E85" s="31">
         <v>171.8</v>
       </c>
-      <c r="F85" s="32">
+      <c r="F85" s="31">
         <v>171.8</v>
       </c>
     </row>
@@ -5210,13 +6069,13 @@
       <c r="C86" t="s">
         <v>36</v>
       </c>
-      <c r="D86" s="32">
+      <c r="D86" s="31">
         <v>189.1</v>
       </c>
-      <c r="E86" s="32">
+      <c r="E86" s="31">
         <v>171.2</v>
       </c>
-      <c r="F86" s="32">
+      <c r="F86" s="31">
         <v>171.2</v>
       </c>
     </row>
@@ -5230,13 +6089,13 @@
       <c r="C87" t="s">
         <v>36</v>
       </c>
-      <c r="D87" s="32">
+      <c r="D87" s="31">
         <v>187.9</v>
       </c>
-      <c r="E87" s="32">
+      <c r="E87" s="31">
         <v>169.2</v>
       </c>
-      <c r="F87" s="32">
+      <c r="F87" s="31">
         <v>169.2</v>
       </c>
     </row>
@@ -5250,13 +6109,13 @@
       <c r="C88" t="s">
         <v>39</v>
       </c>
-      <c r="D88" s="32">
+      <c r="D88" s="31">
         <v>183.2</v>
       </c>
-      <c r="E88" s="32">
+      <c r="E88" s="31">
         <v>166.4</v>
       </c>
-      <c r="F88" s="32" t="s">
+      <c r="F88" s="31" t="s">
         <v>75</v>
       </c>
       <c r="G88" t="s">
@@ -5273,13 +6132,13 @@
       <c r="C89" t="s">
         <v>39</v>
       </c>
-      <c r="D89" s="32">
+      <c r="D89" s="31">
         <v>178.2</v>
       </c>
-      <c r="E89" s="32">
+      <c r="E89" s="31">
         <v>161.5</v>
       </c>
-      <c r="F89" s="32" t="s">
+      <c r="F89" s="31" t="s">
         <v>75</v>
       </c>
       <c r="G89" t="s">
@@ -5296,13 +6155,13 @@
       <c r="C90" t="s">
         <v>39</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="31">
         <v>183.2</v>
       </c>
-      <c r="E90" s="32">
+      <c r="E90" s="31">
         <v>165.9</v>
       </c>
-      <c r="F90" s="32" t="s">
+      <c r="F90" s="31" t="s">
         <v>75</v>
       </c>
       <c r="G90" t="s">
@@ -5319,13 +6178,13 @@
       <c r="C91" t="s">
         <v>39</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="31">
         <v>180</v>
       </c>
-      <c r="E91" s="32">
+      <c r="E91" s="31">
         <v>150.5</v>
       </c>
-      <c r="F91" s="32" t="s">
+      <c r="F91" s="31" t="s">
         <v>75</v>
       </c>
       <c r="G91" t="s">
@@ -5342,13 +6201,13 @@
       <c r="C92" t="s">
         <v>40</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="31">
         <v>177</v>
       </c>
-      <c r="E92" s="32">
+      <c r="E92" s="31">
         <v>159.19999999999999</v>
       </c>
-      <c r="F92" s="32">
+      <c r="F92" s="31">
         <v>159.19999999999999</v>
       </c>
     </row>
@@ -5362,13 +6221,13 @@
       <c r="C93" t="s">
         <v>40</v>
       </c>
-      <c r="D93" s="32">
+      <c r="D93" s="31">
         <v>182.6</v>
       </c>
-      <c r="E93" s="32">
+      <c r="E93" s="31">
         <v>166</v>
       </c>
-      <c r="F93" s="32">
+      <c r="F93" s="31">
         <v>166</v>
       </c>
     </row>
@@ -5382,13 +6241,13 @@
       <c r="C94" t="s">
         <v>40</v>
       </c>
-      <c r="D94" s="32">
+      <c r="D94" s="31">
         <v>178.2</v>
       </c>
-      <c r="E94" s="32">
+      <c r="E94" s="31">
         <v>163.5</v>
       </c>
-      <c r="F94" s="32">
+      <c r="F94" s="31">
         <v>163.5</v>
       </c>
     </row>
@@ -5402,13 +6261,13 @@
       <c r="C95" t="s">
         <v>38</v>
       </c>
-      <c r="D95" s="32">
+      <c r="D95" s="31">
         <v>166.6</v>
       </c>
-      <c r="E95" s="32">
+      <c r="E95" s="31">
         <v>129</v>
       </c>
-      <c r="F95" s="32">
+      <c r="F95" s="31">
         <v>129</v>
       </c>
     </row>
@@ -5422,13 +6281,13 @@
       <c r="C96" t="s">
         <v>38</v>
       </c>
-      <c r="D96" s="32">
+      <c r="D96" s="31">
         <v>160.9</v>
       </c>
-      <c r="E96" s="32">
+      <c r="E96" s="31">
         <v>124</v>
       </c>
-      <c r="F96" s="32">
+      <c r="F96" s="31">
         <v>124</v>
       </c>
     </row>
@@ -5442,13 +6301,13 @@
       <c r="C97" t="s">
         <v>37</v>
       </c>
-      <c r="D97" s="32">
+      <c r="D97" s="31">
         <v>167.9</v>
       </c>
-      <c r="E97" s="32">
+      <c r="E97" s="31">
         <v>131.69999999999999</v>
       </c>
-      <c r="F97" s="32">
+      <c r="F97" s="31">
         <v>131.69999999999999</v>
       </c>
     </row>
@@ -5462,13 +6321,13 @@
       <c r="C98" t="s">
         <v>37</v>
       </c>
-      <c r="D98" s="32">
+      <c r="D98" s="31">
         <v>163.5</v>
       </c>
-      <c r="E98" s="32">
+      <c r="E98" s="31">
         <v>126.5</v>
       </c>
-      <c r="F98" s="32">
+      <c r="F98" s="31">
         <v>126.5</v>
       </c>
     </row>
@@ -5482,13 +6341,13 @@
       <c r="C99" t="s">
         <v>36</v>
       </c>
-      <c r="D99" s="32">
+      <c r="D99" s="31">
         <v>165.4</v>
       </c>
-      <c r="E99" s="32">
+      <c r="E99" s="31">
         <v>129.1</v>
       </c>
-      <c r="F99" s="32">
+      <c r="F99" s="31">
         <v>129.1</v>
       </c>
     </row>
@@ -5502,13 +6361,13 @@
       <c r="C100" t="s">
         <v>36</v>
       </c>
-      <c r="D100" s="32">
+      <c r="D100" s="31">
         <v>171.9</v>
       </c>
-      <c r="E100" s="32">
+      <c r="E100" s="31">
         <v>135.9</v>
       </c>
-      <c r="F100" s="32">
+      <c r="F100" s="31">
         <v>135.9</v>
       </c>
     </row>
@@ -5522,13 +6381,13 @@
       <c r="C101" t="s">
         <v>39</v>
       </c>
-      <c r="D101" s="32">
+      <c r="D101" s="31">
         <v>171.4</v>
       </c>
-      <c r="E101" s="32">
+      <c r="E101" s="31">
         <v>134.69999999999999</v>
       </c>
-      <c r="F101" s="32">
+      <c r="F101" s="31">
         <v>134.69999999999999</v>
       </c>
     </row>
@@ -5542,13 +6401,13 @@
       <c r="C102" t="s">
         <v>39</v>
       </c>
-      <c r="D102" s="32">
+      <c r="D102" s="31">
         <v>165</v>
       </c>
-      <c r="E102" s="32">
+      <c r="E102" s="31">
         <v>126.7</v>
       </c>
-      <c r="F102" s="32">
+      <c r="F102" s="31">
         <v>126.7</v>
       </c>
     </row>
@@ -5562,13 +6421,13 @@
       <c r="C103" t="s">
         <v>40</v>
       </c>
-      <c r="D103" s="32">
+      <c r="D103" s="31">
         <v>167</v>
       </c>
-      <c r="E103" s="32">
+      <c r="E103" s="31">
         <v>131.30000000000001</v>
       </c>
-      <c r="F103" s="32">
+      <c r="F103" s="31">
         <v>131.30000000000001</v>
       </c>
     </row>
@@ -5591,8 +6450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z197"/>
   <sheetViews>
-    <sheetView topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C202" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5612,7 +6471,9 @@
       <c r="C1" s="6"/>
       <c r="D1" s="5"/>
       <c r="E1" s="5"/>
-      <c r="I1" s="6"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -5631,7 +6492,12 @@
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-      <c r="I2" s="6"/>
+      <c r="F2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
@@ -5642,6 +6508,14 @@
       <c r="U2" s="6"/>
       <c r="V2" s="6"/>
     </row>
+    <row r="3" spans="1:26">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+    </row>
     <row r="4" spans="1:26">
       <c r="A4" s="2" t="s">
         <v>16</v>
@@ -5649,6 +6523,16 @@
       <c r="B4" s="2">
         <v>6.5349999999999993</v>
       </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4"/>
     </row>
     <row r="5" spans="1:26">
       <c r="A5" s="2" t="s">
@@ -5657,12 +6541,27 @@
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="F5">
+        <v>20</v>
+      </c>
+      <c r="G5">
+        <v>130.69999999999999</v>
+      </c>
+      <c r="H5">
+        <f>G5/F5</f>
+        <v>6.5349999999999993</v>
+      </c>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:26">
       <c r="B6" s="2">
         <f>142.6/30</f>
         <v>4.753333333333333</v>
       </c>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="3" t="s">
@@ -6782,7 +7681,7 @@
         <f t="shared" si="1"/>
         <v>472.23</v>
       </c>
-      <c r="F53" s="29" t="s">
+      <c r="F53" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G53" s="20" t="s">
@@ -6807,7 +7706,7 @@
         <f t="shared" si="1"/>
         <v>424.53000000000003</v>
       </c>
-      <c r="F54" s="29" t="s">
+      <c r="F54" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G54" s="20" t="s">
@@ -6832,7 +7731,7 @@
         <f t="shared" si="1"/>
         <v>477.13</v>
       </c>
-      <c r="F55" s="29" t="s">
+      <c r="F55" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G55" s="20" t="s">
@@ -6857,7 +7756,7 @@
         <f t="shared" si="1"/>
         <v>152.53</v>
       </c>
-      <c r="F56" s="29" t="s">
+      <c r="F56" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G56" s="20" t="s">
@@ -6882,7 +7781,7 @@
         <f t="shared" si="1"/>
         <v>500.43</v>
       </c>
-      <c r="F57" s="29" t="s">
+      <c r="F57" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G57" s="20" t="s">
@@ -6907,7 +7806,7 @@
         <f t="shared" si="1"/>
         <v>471.83</v>
       </c>
-      <c r="F58" s="29" t="s">
+      <c r="F58" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G58" s="20" t="s">
@@ -6932,7 +7831,7 @@
         <f t="shared" si="1"/>
         <v>467.33</v>
       </c>
-      <c r="F59" s="29" t="s">
+      <c r="F59" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G59" s="20" t="s">
@@ -6957,7 +7856,7 @@
         <f t="shared" si="1"/>
         <v>516.92999999999995</v>
       </c>
-      <c r="F60" s="29" t="s">
+      <c r="F60" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G60" s="20" t="s">
@@ -6982,7 +7881,7 @@
         <f t="shared" si="1"/>
         <v>483.63</v>
       </c>
-      <c r="F61" s="29" t="s">
+      <c r="F61" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G61" s="20" t="s">
@@ -7007,7 +7906,7 @@
         <f t="shared" si="1"/>
         <v>515.92999999999995</v>
       </c>
-      <c r="F62" s="29" t="s">
+      <c r="F62" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G62" s="20" t="s">
@@ -7032,7 +7931,7 @@
         <f t="shared" si="1"/>
         <v>479.93</v>
       </c>
-      <c r="F63" s="29" t="s">
+      <c r="F63" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G63" s="20" t="s">
@@ -7057,7 +7956,7 @@
         <f t="shared" si="1"/>
         <v>507.43</v>
       </c>
-      <c r="F64" s="29" t="s">
+      <c r="F64" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G64" s="20" t="s">
@@ -7082,7 +7981,7 @@
         <f t="shared" si="1"/>
         <v>492.73</v>
       </c>
-      <c r="F65" s="29" t="s">
+      <c r="F65" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G65" s="20" t="s">
@@ -7154,7 +8053,7 @@
         <f t="shared" ref="E68:E102" si="5">D68-C68</f>
         <v>473.23</v>
       </c>
-      <c r="F68" s="29" t="s">
+      <c r="F68" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G68" s="20" t="s">
@@ -7179,7 +8078,7 @@
         <f t="shared" si="5"/>
         <v>406.33</v>
       </c>
-      <c r="F69" s="29" t="s">
+      <c r="F69" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G69" s="20" t="s">
@@ -7204,7 +8103,7 @@
         <f t="shared" si="5"/>
         <v>441.63</v>
       </c>
-      <c r="F70" s="29" t="s">
+      <c r="F70" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G70" s="20" t="s">
@@ -7229,7 +8128,7 @@
         <f t="shared" si="5"/>
         <v>449.83</v>
       </c>
-      <c r="F71" s="29" t="s">
+      <c r="F71" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G71" s="20" t="s">
@@ -7254,7 +8153,7 @@
         <f t="shared" si="5"/>
         <v>428.13</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G72" s="20" t="s">
@@ -7279,7 +8178,7 @@
         <f t="shared" si="5"/>
         <v>457.33</v>
       </c>
-      <c r="F73" s="29" t="s">
+      <c r="F73" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G73" s="20" t="s">
@@ -7304,7 +8203,7 @@
         <f t="shared" si="5"/>
         <v>455.13</v>
       </c>
-      <c r="F74" s="29" t="s">
+      <c r="F74" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G74" s="20" t="s">
@@ -7329,7 +8228,7 @@
         <f t="shared" si="5"/>
         <v>466.93</v>
       </c>
-      <c r="F75" s="29" t="s">
+      <c r="F75" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G75" s="20" t="s">
@@ -7354,7 +8253,7 @@
         <f t="shared" si="5"/>
         <v>365.93</v>
       </c>
-      <c r="F76" s="29" t="s">
+      <c r="F76" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G76" s="20" t="s">
@@ -7379,7 +8278,7 @@
         <f t="shared" si="5"/>
         <v>461.43</v>
       </c>
-      <c r="F77" s="29" t="s">
+      <c r="F77" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G77" s="20" t="s">
@@ -7404,7 +8303,7 @@
         <f t="shared" si="5"/>
         <v>463.73</v>
       </c>
-      <c r="F78" s="29" t="s">
+      <c r="F78" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G78" s="20" t="s">
@@ -7429,7 +8328,7 @@
         <f t="shared" si="5"/>
         <v>380.63</v>
       </c>
-      <c r="F79" s="29" t="s">
+      <c r="F79" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G79" s="20" t="s">
@@ -7454,7 +8353,7 @@
         <f t="shared" si="5"/>
         <v>427.13</v>
       </c>
-      <c r="F80" s="29" t="s">
+      <c r="F80" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G80" s="20" t="s">
@@ -7479,7 +8378,7 @@
         <f t="shared" si="5"/>
         <v>407.53000000000003</v>
       </c>
-      <c r="F81" s="29" t="s">
+      <c r="F81" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G81" s="20" t="s">
@@ -7504,7 +8403,7 @@
         <f t="shared" si="5"/>
         <v>451.93</v>
       </c>
-      <c r="F82" s="29" t="s">
+      <c r="F82" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G82" s="20" t="s">
@@ -7529,7 +8428,7 @@
         <f t="shared" si="5"/>
         <v>358.73</v>
       </c>
-      <c r="F83" s="29" t="s">
+      <c r="F83" s="28" t="s">
         <v>33</v>
       </c>
       <c r="G83" s="20" t="s">
@@ -7601,7 +8500,7 @@
         <f t="shared" si="5"/>
         <v>394.83</v>
       </c>
-      <c r="F86" s="28" t="s">
+      <c r="F86" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G86" s="20" t="s">
@@ -7626,7 +8525,7 @@
         <f t="shared" si="5"/>
         <v>499.22999999999996</v>
       </c>
-      <c r="F87" s="28" t="s">
+      <c r="F87" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G87" s="20" t="s">
@@ -7651,7 +8550,7 @@
         <f t="shared" si="5"/>
         <v>441.63</v>
       </c>
-      <c r="F88" s="28" t="s">
+      <c r="F88" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G88" s="20" t="s">
@@ -7676,7 +8575,7 @@
         <f t="shared" si="5"/>
         <v>496.53000000000003</v>
       </c>
-      <c r="F89" s="28" t="s">
+      <c r="F89" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G89" s="20" t="s">
@@ -7701,7 +8600,7 @@
         <f t="shared" si="5"/>
         <v>520.7299999999999</v>
       </c>
-      <c r="F90" s="28" t="s">
+      <c r="F90" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G90" s="20" t="s">
@@ -7726,7 +8625,7 @@
         <f t="shared" si="5"/>
         <v>472.23</v>
       </c>
-      <c r="F91" s="28" t="s">
+      <c r="F91" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G91" s="20" t="s">
@@ -7751,7 +8650,7 @@
         <f t="shared" si="5"/>
         <v>478.33</v>
       </c>
-      <c r="F92" s="28" t="s">
+      <c r="F92" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G92" s="20" t="s">
@@ -7776,7 +8675,7 @@
         <f t="shared" si="5"/>
         <v>527.82999999999993</v>
       </c>
-      <c r="F93" s="28" t="s">
+      <c r="F93" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G93" s="20" t="s">
@@ -7801,7 +8700,7 @@
         <f t="shared" si="5"/>
         <v>486.73</v>
       </c>
-      <c r="F94" s="28" t="s">
+      <c r="F94" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G94" s="20" t="s">
@@ -7826,7 +8725,7 @@
         <f t="shared" si="5"/>
         <v>527.2299999999999</v>
       </c>
-      <c r="F95" s="28" t="s">
+      <c r="F95" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G95" s="20" t="s">
@@ -7851,7 +8750,7 @@
         <f t="shared" si="5"/>
         <v>497.73</v>
       </c>
-      <c r="F96" s="28" t="s">
+      <c r="F96" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G96" s="20" t="s">
@@ -7876,7 +8775,7 @@
         <f t="shared" si="5"/>
         <v>454.63</v>
       </c>
-      <c r="F97" s="28" t="s">
+      <c r="F97" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G97" s="20" t="s">
@@ -7901,7 +8800,7 @@
         <f t="shared" si="5"/>
         <v>462.23</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G98" s="20" t="s">
@@ -7926,7 +8825,7 @@
         <f t="shared" si="5"/>
         <v>528.92999999999995</v>
       </c>
-      <c r="F99" s="28" t="s">
+      <c r="F99" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G99" s="20" t="s">
@@ -7951,7 +8850,7 @@
         <f t="shared" si="5"/>
         <v>508.43</v>
       </c>
-      <c r="F100" s="28" t="s">
+      <c r="F100" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G100" s="20" t="s">
@@ -7976,7 +8875,7 @@
         <f t="shared" si="5"/>
         <v>496.53000000000003</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G101" s="20" t="s">
@@ -8001,7 +8900,7 @@
         <f t="shared" si="5"/>
         <v>484.63</v>
       </c>
-      <c r="F102" s="28" t="s">
+      <c r="F102" s="27" t="s">
         <v>33</v>
       </c>
       <c r="G102" s="20" t="s">
@@ -8066,17 +8965,17 @@
         <f>$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D105" s="30">
+      <c r="D105" s="29">
         <v>284.10000000000002</v>
       </c>
       <c r="E105" s="7">
-        <f t="shared" ref="E105:E112" si="7">D105-C105</f>
+        <f t="shared" ref="E105:E124" si="7">D105-C105</f>
         <v>279.34666666666669</v>
       </c>
       <c r="F105" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G105" s="26">
+      <c r="G105" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8091,7 +8990,7 @@
         <f t="shared" ref="C106:C125" si="8">$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D106" s="30">
+      <c r="D106" s="29">
         <v>281.5</v>
       </c>
       <c r="E106" s="7">
@@ -8101,7 +9000,7 @@
       <c r="F106" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G106" s="26">
+      <c r="G106" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8116,7 +9015,7 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D107" s="30">
+      <c r="D107" s="29">
         <v>232.1</v>
       </c>
       <c r="E107" s="7">
@@ -8126,7 +9025,7 @@
       <c r="F107" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G107" s="26">
+      <c r="G107" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8141,7 +9040,7 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D108" s="30">
+      <c r="D108" s="29">
         <v>333.4</v>
       </c>
       <c r="E108" s="7">
@@ -8151,7 +9050,7 @@
       <c r="F108" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G108" s="26">
+      <c r="G108" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8166,7 +9065,7 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D109" s="30">
+      <c r="D109" s="29">
         <v>311.7</v>
       </c>
       <c r="E109" s="7">
@@ -8176,7 +9075,7 @@
       <c r="F109" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G109" s="26">
+      <c r="G109" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8191,7 +9090,7 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D110" s="30">
+      <c r="D110" s="29">
         <v>286.39999999999998</v>
       </c>
       <c r="E110" s="7">
@@ -8201,7 +9100,7 @@
       <c r="F110" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G110" s="26">
+      <c r="G110" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8216,7 +9115,7 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D111" s="30">
+      <c r="D111" s="29">
         <v>350.8</v>
       </c>
       <c r="E111" s="7">
@@ -8226,7 +9125,7 @@
       <c r="F111" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G111" s="26">
+      <c r="G111" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8241,7 +9140,7 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D112" s="30">
+      <c r="D112" s="29">
         <v>337.2</v>
       </c>
       <c r="E112" s="7">
@@ -8251,7 +9150,7 @@
       <c r="F112" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G112" s="26">
+      <c r="G112" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8266,17 +9165,17 @@
         <f>$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D113" s="30">
+      <c r="D113" s="29">
         <v>433.2</v>
       </c>
       <c r="E113" s="7">
-        <f t="shared" ref="E113:E125" si="9">D113-C113</f>
+        <f t="shared" si="7"/>
         <v>428.44666666666666</v>
       </c>
       <c r="F113" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G113" s="26">
+      <c r="G113" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8291,17 +9190,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D114" s="30">
+      <c r="D114" s="29">
         <v>272.39999999999998</v>
       </c>
       <c r="E114" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>267.64666666666665</v>
       </c>
       <c r="F114" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G114" s="26">
+      <c r="G114" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8316,17 +9215,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D115" s="30">
+      <c r="D115" s="29">
         <v>313.60000000000002</v>
       </c>
       <c r="E115" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>308.84666666666669</v>
       </c>
       <c r="F115" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G115" s="26">
+      <c r="G115" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8341,17 +9240,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D116" s="30">
+      <c r="D116" s="29">
         <v>324.8</v>
       </c>
       <c r="E116" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>320.04666666666668</v>
       </c>
       <c r="F116" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G116" s="26">
+      <c r="G116" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8366,17 +9265,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D117" s="30">
+      <c r="D117" s="29">
         <v>423.1</v>
       </c>
       <c r="E117" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>418.34666666666669</v>
       </c>
       <c r="F117" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G117" s="26">
+      <c r="G117" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8391,17 +9290,17 @@
         <f>$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D118" s="30">
+      <c r="D118" s="29">
         <v>337.6</v>
       </c>
       <c r="E118" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>332.84666666666669</v>
       </c>
       <c r="F118" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G118" s="26">
+      <c r="G118" s="25">
         <v>41313</v>
       </c>
       <c r="H118" s="20"/>
@@ -8435,17 +9334,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D119" s="30">
+      <c r="D119" s="29">
         <v>394.2</v>
       </c>
       <c r="E119" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>389.44666666666666</v>
       </c>
       <c r="F119" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G119" s="26">
+      <c r="G119" s="25">
         <v>41313</v>
       </c>
       <c r="H119" s="20"/>
@@ -8479,17 +9378,17 @@
         <f>$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D120" s="30">
+      <c r="D120" s="29">
         <v>235.7</v>
       </c>
       <c r="E120" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>230.94666666666666</v>
       </c>
       <c r="F120" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G120" s="26">
+      <c r="G120" s="25">
         <v>41313</v>
       </c>
       <c r="H120" s="20"/>
@@ -8523,17 +9422,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D121" s="30">
+      <c r="D121" s="29">
         <v>324.8</v>
       </c>
       <c r="E121" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>320.04666666666668</v>
       </c>
       <c r="F121" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G121" s="26">
+      <c r="G121" s="25">
         <v>41313</v>
       </c>
       <c r="H121" s="20"/>
@@ -8567,17 +9466,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D122" s="30">
+      <c r="D122" s="29">
         <v>302.89999999999998</v>
       </c>
       <c r="E122" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>298.14666666666665</v>
       </c>
       <c r="F122" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G122" s="26">
+      <c r="G122" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8592,17 +9491,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D123" s="30">
+      <c r="D123" s="29">
         <v>351</v>
       </c>
       <c r="E123" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>346.24666666666667</v>
       </c>
       <c r="F123" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G123" s="26">
+      <c r="G123" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8617,17 +9516,17 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D124" s="30">
+      <c r="D124" s="29">
         <v>263.39999999999998</v>
       </c>
       <c r="E124" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>258.64666666666665</v>
       </c>
       <c r="F124" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G124" s="26">
+      <c r="G124" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8642,15 +9541,11 @@
         <f t="shared" si="8"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D125" s="30"/>
-      <c r="E125" s="7">
-        <f t="shared" si="9"/>
-        <v>-4.753333333333333</v>
-      </c>
+      <c r="D125" s="29"/>
       <c r="F125" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G125" s="26">
+      <c r="G125" s="25">
         <v>41313</v>
       </c>
     </row>
@@ -8663,7 +9558,7 @@
       <c r="D126" s="15"/>
       <c r="E126" s="15">
         <f>SUM(E105:E125)</f>
-        <v>6294.08</v>
+        <v>6298.833333333333</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14"/>
@@ -8712,17 +9607,17 @@
         <f>$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D128" s="30">
+      <c r="D128" s="29">
         <v>407.4</v>
       </c>
       <c r="E128" s="7">
-        <f t="shared" ref="E128:E148" si="10">D128-C128</f>
+        <f t="shared" ref="E128:E148" si="9">D128-C128</f>
         <v>402.64666666666665</v>
       </c>
-      <c r="F128" s="29" t="s">
+      <c r="F128" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G128" s="27">
+      <c r="G128" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8734,20 +9629,20 @@
         <v>23</v>
       </c>
       <c r="C129" s="17">
-        <f t="shared" ref="C129:C148" si="11">$B$6</f>
+        <f t="shared" ref="C129:C148" si="10">$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D129" s="30">
+      <c r="D129" s="29">
         <v>425.2</v>
       </c>
       <c r="E129" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>420.44666666666666</v>
       </c>
-      <c r="F129" s="29" t="s">
+      <c r="F129" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G129" s="27">
+      <c r="G129" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8759,20 +9654,20 @@
         <v>23</v>
       </c>
       <c r="C130" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D130" s="30">
+      <c r="D130" s="29">
         <v>354.6</v>
       </c>
       <c r="E130" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>349.84666666666669</v>
       </c>
-      <c r="F130" s="29" t="s">
+      <c r="F130" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G130" s="27">
+      <c r="G130" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8784,20 +9679,20 @@
         <v>23</v>
       </c>
       <c r="C131" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D131" s="30">
+      <c r="D131" s="29">
         <v>494.9</v>
       </c>
       <c r="E131" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>490.14666666666665</v>
       </c>
-      <c r="F131" s="29" t="s">
+      <c r="F131" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G131" s="27">
+      <c r="G131" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8809,20 +9704,20 @@
         <v>23</v>
       </c>
       <c r="C132" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D132" s="30">
+      <c r="D132" s="29">
         <v>400.6</v>
       </c>
       <c r="E132" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>395.84666666666669</v>
       </c>
-      <c r="F132" s="29" t="s">
+      <c r="F132" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G132" s="27">
+      <c r="G132" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8834,20 +9729,20 @@
         <v>23</v>
       </c>
       <c r="C133" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D133" s="30">
+      <c r="D133" s="29">
         <v>269.60000000000002</v>
       </c>
       <c r="E133" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>264.84666666666669</v>
       </c>
-      <c r="F133" s="29" t="s">
+      <c r="F133" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G133" s="27">
+      <c r="G133" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8859,20 +9754,20 @@
         <v>23</v>
       </c>
       <c r="C134" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D134" s="30">
+      <c r="D134" s="29">
         <v>399.7</v>
       </c>
       <c r="E134" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>394.94666666666666</v>
       </c>
-      <c r="F134" s="29" t="s">
+      <c r="F134" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G134" s="27">
+      <c r="G134" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8884,20 +9779,20 @@
         <v>23</v>
       </c>
       <c r="C135" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D135" s="30">
+      <c r="D135" s="29">
         <v>238.9</v>
       </c>
       <c r="E135" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>234.14666666666668</v>
       </c>
-      <c r="F135" s="29" t="s">
+      <c r="F135" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G135" s="27">
+      <c r="G135" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8912,17 +9807,17 @@
         <f>$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D136" s="30">
+      <c r="D136" s="29">
         <v>317.60000000000002</v>
       </c>
       <c r="E136" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>312.84666666666669</v>
       </c>
-      <c r="F136" s="29" t="s">
+      <c r="F136" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G136" s="27">
+      <c r="G136" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8934,20 +9829,20 @@
         <v>23</v>
       </c>
       <c r="C137" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D137" s="30">
+      <c r="D137" s="29">
         <v>321.89999999999998</v>
       </c>
       <c r="E137" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>317.14666666666665</v>
       </c>
-      <c r="F137" s="29" t="s">
+      <c r="F137" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G137" s="27">
+      <c r="G137" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8959,20 +9854,20 @@
         <v>23</v>
       </c>
       <c r="C138" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D138" s="30">
+      <c r="D138" s="29">
         <v>328.3</v>
       </c>
       <c r="E138" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>323.54666666666668</v>
       </c>
-      <c r="F138" s="29" t="s">
+      <c r="F138" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G138" s="27">
+      <c r="G138" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -8984,20 +9879,20 @@
         <v>23</v>
       </c>
       <c r="C139" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D139" s="30">
+      <c r="D139" s="29">
         <v>433.2</v>
       </c>
       <c r="E139" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>428.44666666666666</v>
       </c>
-      <c r="F139" s="29" t="s">
+      <c r="F139" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G139" s="27">
+      <c r="G139" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -9009,20 +9904,20 @@
         <v>23</v>
       </c>
       <c r="C140" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D140" s="30">
+      <c r="D140" s="29">
         <v>309</v>
       </c>
       <c r="E140" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>304.24666666666667</v>
       </c>
-      <c r="F140" s="29" t="s">
+      <c r="F140" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G140" s="27">
+      <c r="G140" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -9037,17 +9932,17 @@
         <f>$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D141" s="30">
+      <c r="D141" s="29">
         <v>333.5</v>
       </c>
       <c r="E141" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>328.74666666666667</v>
       </c>
-      <c r="F141" s="29" t="s">
+      <c r="F141" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G141" s="27">
+      <c r="G141" s="26">
         <v>41313</v>
       </c>
       <c r="H141" s="20"/>
@@ -9078,20 +9973,20 @@
         <v>23</v>
       </c>
       <c r="C142" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D142" s="30">
+      <c r="D142" s="29">
         <v>394.3</v>
       </c>
       <c r="E142" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>389.54666666666668</v>
       </c>
-      <c r="F142" s="29" t="s">
+      <c r="F142" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G142" s="27">
+      <c r="G142" s="26">
         <v>41313</v>
       </c>
       <c r="H142" s="20"/>
@@ -9125,17 +10020,17 @@
         <f>$B$6</f>
         <v>4.753333333333333</v>
       </c>
-      <c r="D143" s="30">
+      <c r="D143" s="29">
         <v>418</v>
       </c>
       <c r="E143" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>413.24666666666667</v>
       </c>
-      <c r="F143" s="29" t="s">
+      <c r="F143" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G143" s="27">
+      <c r="G143" s="26">
         <v>41313</v>
       </c>
       <c r="H143" s="20"/>
@@ -9166,20 +10061,20 @@
         <v>23</v>
       </c>
       <c r="C144" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D144" s="30">
+      <c r="D144" s="29">
         <v>448.6</v>
       </c>
       <c r="E144" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>443.84666666666669</v>
       </c>
-      <c r="F144" s="29" t="s">
+      <c r="F144" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G144" s="27">
+      <c r="G144" s="26">
         <v>41313</v>
       </c>
       <c r="H144" s="20"/>
@@ -9210,20 +10105,20 @@
         <v>23</v>
       </c>
       <c r="C145" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D145" s="30">
+      <c r="D145" s="29">
         <v>332.2</v>
       </c>
       <c r="E145" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>327.44666666666666</v>
       </c>
-      <c r="F145" s="29" t="s">
+      <c r="F145" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G145" s="27">
+      <c r="G145" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -9235,18 +10130,14 @@
         <v>23</v>
       </c>
       <c r="C146" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D146" s="30"/>
-      <c r="E146" s="7">
-        <f t="shared" si="10"/>
-        <v>-4.753333333333333</v>
-      </c>
-      <c r="F146" s="29" t="s">
+      <c r="D146" s="29"/>
+      <c r="F146" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G146" s="27">
+      <c r="G146" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -9258,18 +10149,14 @@
         <v>23</v>
       </c>
       <c r="C147" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D147" s="30"/>
-      <c r="E147" s="7">
-        <f t="shared" si="10"/>
-        <v>-4.753333333333333</v>
-      </c>
-      <c r="F147" s="29" t="s">
+      <c r="D147" s="29"/>
+      <c r="F147" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G147" s="27">
+      <c r="G147" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -9281,18 +10168,14 @@
         <v>23</v>
       </c>
       <c r="C148" s="17">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>4.753333333333333</v>
       </c>
-      <c r="D148" s="30"/>
-      <c r="E148" s="7">
-        <f t="shared" si="10"/>
-        <v>-4.753333333333333</v>
-      </c>
-      <c r="F148" s="29" t="s">
+      <c r="D148" s="29"/>
+      <c r="F148" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G148" s="27">
+      <c r="G148" s="26">
         <v>41313</v>
       </c>
     </row>
@@ -9305,7 +10188,7 @@
       <c r="D149" s="15"/>
       <c r="E149" s="15">
         <f>SUM(E128:E148)</f>
-        <v>6527.6800000000012</v>
+        <v>6541.9400000000005</v>
       </c>
       <c r="F149" s="14"/>
       <c r="G149" s="14"/>
@@ -9330,32 +10213,32 @@
       <c r="Z149" s="14"/>
     </row>
     <row r="150" spans="1:26">
-      <c r="A150" s="23"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="24"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="24"/>
-      <c r="H150" s="25"/>
-      <c r="I150" s="25"/>
-      <c r="J150" s="25"/>
-      <c r="K150" s="24"/>
-      <c r="L150" s="25"/>
-      <c r="M150" s="25"/>
-      <c r="N150" s="25"/>
-      <c r="O150" s="23"/>
-      <c r="P150" s="24"/>
-      <c r="Q150" s="23"/>
-      <c r="R150" s="23"/>
-      <c r="S150" s="24"/>
-      <c r="T150" s="24"/>
-      <c r="U150" s="23"/>
-      <c r="V150" s="23"/>
-      <c r="W150" s="23"/>
-      <c r="X150" s="23"/>
-      <c r="Y150" s="23"/>
-      <c r="Z150" s="23"/>
+      <c r="A150" s="22"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="22"/>
+      <c r="E150" s="22"/>
+      <c r="F150" s="22"/>
+      <c r="G150" s="23"/>
+      <c r="H150" s="24"/>
+      <c r="I150" s="24"/>
+      <c r="J150" s="24"/>
+      <c r="K150" s="23"/>
+      <c r="L150" s="24"/>
+      <c r="M150" s="24"/>
+      <c r="N150" s="24"/>
+      <c r="O150" s="22"/>
+      <c r="P150" s="23"/>
+      <c r="Q150" s="22"/>
+      <c r="R150" s="22"/>
+      <c r="S150" s="23"/>
+      <c r="T150" s="23"/>
+      <c r="U150" s="22"/>
+      <c r="V150" s="22"/>
+      <c r="W150" s="22"/>
+      <c r="X150" s="22"/>
+      <c r="Y150" s="22"/>
+      <c r="Z150" s="22"/>
     </row>
     <row r="151" spans="1:26">
       <c r="A151" s="20" t="s">
@@ -9367,16 +10250,17 @@
       <c r="C151" s="21">
         <v>4.75</v>
       </c>
-      <c r="D151" s="31">
+      <c r="D151" s="30">
         <v>558.20000000000005</v>
       </c>
-      <c r="E151" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F151" s="28" t="s">
+      <c r="E151" s="7">
+        <f>D151-C151</f>
+        <v>553.45000000000005</v>
+      </c>
+      <c r="F151" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G151" s="27">
+      <c r="G151" s="26">
         <v>41313</v>
       </c>
       <c r="H151" s="20"/>
@@ -9409,16 +10293,17 @@
       <c r="C152" s="21">
         <v>4.75</v>
       </c>
-      <c r="D152" s="31">
+      <c r="D152" s="30">
         <v>535.1</v>
       </c>
-      <c r="E152" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F152" s="28" t="s">
+      <c r="E152" s="7">
+        <f>D152-C152</f>
+        <v>530.35</v>
+      </c>
+      <c r="F152" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G152" s="27">
+      <c r="G152" s="26">
         <v>41313</v>
       </c>
       <c r="H152" s="20"/>
@@ -9451,16 +10336,17 @@
       <c r="C153" s="21">
         <v>4.75</v>
       </c>
-      <c r="D153" s="31">
+      <c r="D153" s="30">
         <v>484.1</v>
       </c>
-      <c r="E153" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F153" s="28" t="s">
+      <c r="E153" s="7">
+        <f t="shared" ref="E153:E171" si="11">D153-C153</f>
+        <v>479.35</v>
+      </c>
+      <c r="F153" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G153" s="27">
+      <c r="G153" s="26">
         <v>41313</v>
       </c>
       <c r="H153" s="20"/>
@@ -9493,16 +10379,17 @@
       <c r="C154" s="21">
         <v>4.75</v>
       </c>
-      <c r="D154" s="31">
+      <c r="D154" s="30">
         <v>464.1</v>
       </c>
-      <c r="E154" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F154" s="28" t="s">
+      <c r="E154" s="7">
+        <f t="shared" si="11"/>
+        <v>459.35</v>
+      </c>
+      <c r="F154" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G154" s="27">
+      <c r="G154" s="26">
         <v>41313</v>
       </c>
       <c r="H154" s="20"/>
@@ -9535,16 +10422,17 @@
       <c r="C155" s="21">
         <v>4.75</v>
       </c>
-      <c r="D155" s="31">
+      <c r="D155" s="30">
         <v>450.1</v>
       </c>
-      <c r="E155" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F155" s="28" t="s">
+      <c r="E155" s="7">
+        <f t="shared" si="11"/>
+        <v>445.35</v>
+      </c>
+      <c r="F155" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G155" s="27">
+      <c r="G155" s="26">
         <v>41313</v>
       </c>
       <c r="H155" s="20"/>
@@ -9577,16 +10465,17 @@
       <c r="C156" s="21">
         <v>4.75</v>
       </c>
-      <c r="D156" s="31">
+      <c r="D156" s="30">
         <v>494.9</v>
       </c>
-      <c r="E156" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F156" s="28" t="s">
+      <c r="E156" s="7">
+        <f t="shared" si="11"/>
+        <v>490.15</v>
+      </c>
+      <c r="F156" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G156" s="27">
+      <c r="G156" s="26">
         <v>41313</v>
       </c>
       <c r="H156" s="20"/>
@@ -9619,16 +10508,17 @@
       <c r="C157" s="21">
         <v>4.75</v>
       </c>
-      <c r="D157" s="31">
+      <c r="D157" s="30">
         <v>393.5</v>
       </c>
-      <c r="E157" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F157" s="28" t="s">
+      <c r="E157" s="7">
+        <f t="shared" si="11"/>
+        <v>388.75</v>
+      </c>
+      <c r="F157" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G157" s="27">
+      <c r="G157" s="26">
         <v>41313</v>
       </c>
       <c r="H157" s="20"/>
@@ -9661,16 +10551,17 @@
       <c r="C158" s="21">
         <v>4.75</v>
       </c>
-      <c r="D158" s="31">
+      <c r="D158" s="30">
         <v>354.6</v>
       </c>
-      <c r="E158" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F158" s="28" t="s">
+      <c r="E158" s="7">
+        <f t="shared" si="11"/>
+        <v>349.85</v>
+      </c>
+      <c r="F158" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G158" s="27">
+      <c r="G158" s="26">
         <v>41313</v>
       </c>
       <c r="H158" s="20"/>
@@ -9703,16 +10594,17 @@
       <c r="C159" s="21">
         <v>4.75</v>
       </c>
-      <c r="D159" s="31">
+      <c r="D159" s="30">
         <v>475.4</v>
       </c>
-      <c r="E159" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F159" s="28" t="s">
+      <c r="E159" s="7">
+        <f t="shared" si="11"/>
+        <v>470.65</v>
+      </c>
+      <c r="F159" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G159" s="27">
+      <c r="G159" s="26">
         <v>41313</v>
       </c>
       <c r="H159" s="20"/>
@@ -9745,16 +10637,17 @@
       <c r="C160" s="21">
         <v>4.75</v>
       </c>
-      <c r="D160" s="31">
+      <c r="D160" s="30">
         <v>507.8</v>
       </c>
-      <c r="E160" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F160" s="28" t="s">
+      <c r="E160" s="7">
+        <f t="shared" si="11"/>
+        <v>503.05</v>
+      </c>
+      <c r="F160" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G160" s="27">
+      <c r="G160" s="26">
         <v>41313</v>
       </c>
       <c r="H160" s="20"/>
@@ -9787,16 +10680,17 @@
       <c r="C161" s="21">
         <v>4.75</v>
       </c>
-      <c r="D161" s="31">
+      <c r="D161" s="30">
         <v>536.5</v>
       </c>
-      <c r="E161" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F161" s="28" t="s">
+      <c r="E161" s="7">
+        <f t="shared" si="11"/>
+        <v>531.75</v>
+      </c>
+      <c r="F161" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G161" s="27">
+      <c r="G161" s="26">
         <v>41313</v>
       </c>
       <c r="H161" s="20"/>
@@ -9829,16 +10723,17 @@
       <c r="C162" s="21">
         <v>4.75</v>
       </c>
-      <c r="D162" s="31">
+      <c r="D162" s="30">
         <v>511</v>
       </c>
-      <c r="E162" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F162" s="28" t="s">
+      <c r="E162" s="7">
+        <f t="shared" si="11"/>
+        <v>506.25</v>
+      </c>
+      <c r="F162" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G162" s="27">
+      <c r="G162" s="26">
         <v>41313</v>
       </c>
       <c r="H162" s="20"/>
@@ -9871,16 +10766,17 @@
       <c r="C163" s="21">
         <v>4.75</v>
       </c>
-      <c r="D163" s="31">
+      <c r="D163" s="30">
         <v>350.7</v>
       </c>
-      <c r="E163" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F163" s="28" t="s">
+      <c r="E163" s="7">
+        <f t="shared" si="11"/>
+        <v>345.95</v>
+      </c>
+      <c r="F163" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G163" s="27">
+      <c r="G163" s="26">
         <v>41313</v>
       </c>
       <c r="H163" s="20"/>
@@ -9913,16 +10809,17 @@
       <c r="C164" s="21">
         <v>4.75</v>
       </c>
-      <c r="D164" s="31">
+      <c r="D164" s="30">
         <v>558.70000000000005</v>
       </c>
-      <c r="E164" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F164" s="28" t="s">
+      <c r="E164" s="7">
+        <f t="shared" si="11"/>
+        <v>553.95000000000005</v>
+      </c>
+      <c r="F164" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G164" s="27">
+      <c r="G164" s="26">
         <v>41313</v>
       </c>
       <c r="H164" s="20"/>
@@ -9955,16 +10852,17 @@
       <c r="C165" s="21">
         <v>4.75</v>
       </c>
-      <c r="D165" s="31">
+      <c r="D165" s="30">
         <v>365.4</v>
       </c>
-      <c r="E165" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F165" s="28" t="s">
+      <c r="E165" s="7">
+        <f t="shared" si="11"/>
+        <v>360.65</v>
+      </c>
+      <c r="F165" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G165" s="27">
+      <c r="G165" s="26">
         <v>41313</v>
       </c>
       <c r="H165" s="20"/>
@@ -9997,16 +10895,17 @@
       <c r="C166" s="21">
         <v>4.75</v>
       </c>
-      <c r="D166" s="31">
+      <c r="D166" s="30">
         <v>381.3</v>
       </c>
-      <c r="E166" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F166" s="28" t="s">
+      <c r="E166" s="7">
+        <f t="shared" si="11"/>
+        <v>376.55</v>
+      </c>
+      <c r="F166" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G166" s="27">
+      <c r="G166" s="26">
         <v>41313</v>
       </c>
       <c r="H166" s="20"/>
@@ -10039,16 +10938,17 @@
       <c r="C167" s="21">
         <v>4.75</v>
       </c>
-      <c r="D167" s="31">
+      <c r="D167" s="30">
         <v>510.4</v>
       </c>
-      <c r="E167" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F167" s="28" t="s">
+      <c r="E167" s="7">
+        <f t="shared" si="11"/>
+        <v>505.65</v>
+      </c>
+      <c r="F167" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G167" s="27">
+      <c r="G167" s="26">
         <v>41313</v>
       </c>
       <c r="H167" s="20"/>
@@ -10081,16 +10981,17 @@
       <c r="C168" s="21">
         <v>4.75</v>
       </c>
-      <c r="D168" s="31">
+      <c r="D168" s="30">
         <v>605.70000000000005</v>
       </c>
-      <c r="E168" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F168" s="28" t="s">
+      <c r="E168" s="7">
+        <f t="shared" si="11"/>
+        <v>600.95000000000005</v>
+      </c>
+      <c r="F168" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G168" s="27">
+      <c r="G168" s="26">
         <v>41313</v>
       </c>
       <c r="H168" s="20"/>
@@ -10123,16 +11024,17 @@
       <c r="C169" s="21">
         <v>4.75</v>
       </c>
-      <c r="D169" s="31">
+      <c r="D169" s="30">
         <v>557.4</v>
       </c>
-      <c r="E169" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F169" s="28" t="s">
+      <c r="E169" s="7">
+        <f t="shared" si="11"/>
+        <v>552.65</v>
+      </c>
+      <c r="F169" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G169" s="27">
+      <c r="G169" s="26">
         <v>41313</v>
       </c>
       <c r="H169" s="20"/>
@@ -10165,16 +11067,17 @@
       <c r="C170" s="21">
         <v>4.75</v>
       </c>
-      <c r="D170" s="31">
+      <c r="D170" s="30">
         <v>568.5</v>
       </c>
-      <c r="E170" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F170" s="28" t="s">
+      <c r="E170" s="7">
+        <f t="shared" si="11"/>
+        <v>563.75</v>
+      </c>
+      <c r="F170" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G170" s="27">
+      <c r="G170" s="26">
         <v>41313</v>
       </c>
       <c r="H170" s="20"/>
@@ -10207,16 +11110,17 @@
       <c r="C171" s="21">
         <v>4.75</v>
       </c>
-      <c r="D171" s="31">
+      <c r="D171" s="30">
         <v>434</v>
       </c>
-      <c r="E171" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F171" s="28" t="s">
+      <c r="E171" s="7">
+        <f t="shared" si="11"/>
+        <v>429.25</v>
+      </c>
+      <c r="F171" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="G171" s="27">
+      <c r="G171" s="26">
         <v>41313</v>
       </c>
       <c r="H171" s="20"/>
@@ -10247,7 +11151,8 @@
       <c r="C172" s="19"/>
       <c r="D172" s="15"/>
       <c r="E172" s="15">
-        <v>-99.8</v>
+        <f>SUM(E151:E171)</f>
+        <v>9997.65</v>
       </c>
       <c r="F172" s="14"/>
       <c r="G172" s="14"/>
@@ -10272,32 +11177,32 @@
       <c r="Z172" s="14"/>
     </row>
     <row r="173" spans="1:26">
-      <c r="A173" s="23"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="24"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="24"/>
-      <c r="H173" s="25"/>
-      <c r="I173" s="25"/>
-      <c r="J173" s="25"/>
-      <c r="K173" s="24"/>
-      <c r="L173" s="25"/>
-      <c r="M173" s="25"/>
-      <c r="N173" s="25"/>
-      <c r="O173" s="23"/>
-      <c r="P173" s="24"/>
-      <c r="Q173" s="23"/>
-      <c r="R173" s="23"/>
-      <c r="S173" s="24"/>
-      <c r="T173" s="24"/>
-      <c r="U173" s="23"/>
-      <c r="V173" s="23"/>
-      <c r="W173" s="23"/>
-      <c r="X173" s="23"/>
-      <c r="Y173" s="23"/>
-      <c r="Z173" s="23"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="23"/>
+      <c r="D173" s="22"/>
+      <c r="E173" s="22"/>
+      <c r="F173" s="22"/>
+      <c r="G173" s="23"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="24"/>
+      <c r="J173" s="24"/>
+      <c r="K173" s="23"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="24"/>
+      <c r="N173" s="24"/>
+      <c r="O173" s="22"/>
+      <c r="P173" s="23"/>
+      <c r="Q173" s="22"/>
+      <c r="R173" s="22"/>
+      <c r="S173" s="23"/>
+      <c r="T173" s="23"/>
+      <c r="U173" s="22"/>
+      <c r="V173" s="22"/>
+      <c r="W173" s="22"/>
+      <c r="X173" s="22"/>
+      <c r="Y173" s="22"/>
+      <c r="Z173" s="22"/>
     </row>
     <row r="174" spans="1:26">
       <c r="A174" s="20" t="s">
@@ -10309,16 +11214,17 @@
       <c r="C174" s="21">
         <v>4.75</v>
       </c>
-      <c r="D174" s="31">
+      <c r="D174" s="30">
         <v>339.3</v>
       </c>
-      <c r="E174" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F174" s="29" t="s">
+      <c r="E174" s="7">
+        <f>D174-C174</f>
+        <v>334.55</v>
+      </c>
+      <c r="F174" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G174" s="27">
+      <c r="G174" s="26">
         <v>41313</v>
       </c>
       <c r="H174" s="20"/>
@@ -10351,16 +11257,17 @@
       <c r="C175" s="21">
         <v>4.75</v>
       </c>
-      <c r="D175" s="31">
+      <c r="D175" s="30">
         <v>549.9</v>
       </c>
-      <c r="E175" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F175" s="29" t="s">
+      <c r="E175" s="7">
+        <f>D175-C175</f>
+        <v>545.15</v>
+      </c>
+      <c r="F175" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G175" s="27">
+      <c r="G175" s="26">
         <v>41313</v>
       </c>
       <c r="H175" s="20"/>
@@ -10393,16 +11300,17 @@
       <c r="C176" s="21">
         <v>4.75</v>
       </c>
-      <c r="D176" s="31">
+      <c r="D176" s="30">
         <v>389.5</v>
       </c>
-      <c r="E176" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F176" s="29" t="s">
+      <c r="E176" s="7">
+        <f t="shared" ref="E176:E185" si="12">D176-C176</f>
+        <v>384.75</v>
+      </c>
+      <c r="F176" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G176" s="27">
+      <c r="G176" s="26">
         <v>41313</v>
       </c>
       <c r="H176" s="20"/>
@@ -10435,16 +11343,17 @@
       <c r="C177" s="21">
         <v>4.75</v>
       </c>
-      <c r="D177" s="31">
+      <c r="D177" s="30">
         <v>450.3</v>
       </c>
-      <c r="E177" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F177" s="29" t="s">
+      <c r="E177" s="7">
+        <f t="shared" si="12"/>
+        <v>445.55</v>
+      </c>
+      <c r="F177" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G177" s="27">
+      <c r="G177" s="26">
         <v>41313</v>
       </c>
       <c r="H177" s="20"/>
@@ -10477,16 +11386,17 @@
       <c r="C178" s="21">
         <v>4.75</v>
       </c>
-      <c r="D178" s="31">
+      <c r="D178" s="30">
         <v>459</v>
       </c>
-      <c r="E178" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F178" s="29" t="s">
+      <c r="E178" s="7">
+        <f t="shared" si="12"/>
+        <v>454.25</v>
+      </c>
+      <c r="F178" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G178" s="27">
+      <c r="G178" s="26">
         <v>41313</v>
       </c>
       <c r="H178" s="20"/>
@@ -10519,16 +11429,17 @@
       <c r="C179" s="21">
         <v>4.75</v>
       </c>
-      <c r="D179" s="31">
+      <c r="D179" s="30">
         <v>498.3</v>
       </c>
-      <c r="E179" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F179" s="29" t="s">
+      <c r="E179" s="7">
+        <f t="shared" si="12"/>
+        <v>493.55</v>
+      </c>
+      <c r="F179" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G179" s="27">
+      <c r="G179" s="26">
         <v>41313</v>
       </c>
       <c r="H179" s="20"/>
@@ -10561,16 +11472,17 @@
       <c r="C180" s="21">
         <v>4.75</v>
       </c>
-      <c r="D180" s="31">
+      <c r="D180" s="30">
         <v>467.6</v>
       </c>
-      <c r="E180" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F180" s="29" t="s">
+      <c r="E180" s="7">
+        <f t="shared" si="12"/>
+        <v>462.85</v>
+      </c>
+      <c r="F180" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G180" s="27">
+      <c r="G180" s="26">
         <v>41313</v>
       </c>
       <c r="H180" s="20"/>
@@ -10603,16 +11515,17 @@
       <c r="C181" s="21">
         <v>4.75</v>
       </c>
-      <c r="D181" s="31">
+      <c r="D181" s="30">
         <v>312</v>
       </c>
-      <c r="E181" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F181" s="29" t="s">
+      <c r="E181" s="7">
+        <f t="shared" si="12"/>
+        <v>307.25</v>
+      </c>
+      <c r="F181" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G181" s="27">
+      <c r="G181" s="26">
         <v>41313</v>
       </c>
       <c r="H181" s="20"/>
@@ -10645,16 +11558,17 @@
       <c r="C182" s="21">
         <v>4.75</v>
       </c>
-      <c r="D182" s="31">
+      <c r="D182" s="30">
         <v>398.8</v>
       </c>
-      <c r="E182" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F182" s="29" t="s">
+      <c r="E182" s="7">
+        <f t="shared" si="12"/>
+        <v>394.05</v>
+      </c>
+      <c r="F182" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G182" s="27">
+      <c r="G182" s="26">
         <v>41313</v>
       </c>
       <c r="H182" s="20"/>
@@ -10687,16 +11601,17 @@
       <c r="C183" s="21">
         <v>4.75</v>
       </c>
-      <c r="D183" s="31">
+      <c r="D183" s="30">
         <v>287.89999999999998</v>
       </c>
-      <c r="E183" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F183" s="29" t="s">
+      <c r="E183" s="7">
+        <f t="shared" si="12"/>
+        <v>283.14999999999998</v>
+      </c>
+      <c r="F183" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G183" s="27">
+      <c r="G183" s="26">
         <v>41313</v>
       </c>
       <c r="H183" s="20"/>
@@ -10729,16 +11644,17 @@
       <c r="C184" s="21">
         <v>4.75</v>
       </c>
-      <c r="D184" s="31">
+      <c r="D184" s="30">
         <v>437.8</v>
       </c>
-      <c r="E184" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F184" s="29" t="s">
+      <c r="E184" s="7">
+        <f t="shared" si="12"/>
+        <v>433.05</v>
+      </c>
+      <c r="F184" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G184" s="27">
+      <c r="G184" s="26">
         <v>41313</v>
       </c>
       <c r="H184" s="20"/>
@@ -10771,16 +11687,17 @@
       <c r="C185" s="21">
         <v>4.75</v>
       </c>
-      <c r="D185" s="31">
+      <c r="D185" s="30">
         <v>314.10000000000002</v>
       </c>
-      <c r="E185" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F185" s="29" t="s">
+      <c r="E185" s="7">
+        <f t="shared" si="12"/>
+        <v>309.35000000000002</v>
+      </c>
+      <c r="F185" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G185" s="27">
+      <c r="G185" s="26">
         <v>41313</v>
       </c>
       <c r="H185" s="20"/>
@@ -10813,16 +11730,17 @@
       <c r="C186" s="21">
         <v>4.75</v>
       </c>
-      <c r="D186" s="31">
+      <c r="D186" s="30">
         <v>460.2</v>
       </c>
-      <c r="E186" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F186" s="29" t="s">
+      <c r="E186" s="7">
+        <f>D186-C186</f>
+        <v>455.45</v>
+      </c>
+      <c r="F186" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G186" s="27">
+      <c r="G186" s="26">
         <v>41313</v>
       </c>
       <c r="H186" s="20"/>
@@ -10855,16 +11773,17 @@
       <c r="C187" s="21">
         <v>4.75</v>
       </c>
-      <c r="D187" s="31">
+      <c r="D187" s="30">
         <v>386.3</v>
       </c>
-      <c r="E187" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F187" s="29" t="s">
+      <c r="E187" s="7">
+        <f>D187-C187</f>
+        <v>381.55</v>
+      </c>
+      <c r="F187" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G187" s="27">
+      <c r="G187" s="26">
         <v>41313</v>
       </c>
       <c r="H187" s="20"/>
@@ -10897,16 +11816,17 @@
       <c r="C188" s="21">
         <v>4.75</v>
       </c>
-      <c r="D188" s="31">
+      <c r="D188" s="30">
         <v>329.6</v>
       </c>
-      <c r="E188" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F188" s="29" t="s">
+      <c r="E188" s="7">
+        <f t="shared" ref="E188:E195" si="13">D188-C188</f>
+        <v>324.85000000000002</v>
+      </c>
+      <c r="F188" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G188" s="27">
+      <c r="G188" s="26">
         <v>41313</v>
       </c>
       <c r="H188" s="20"/>
@@ -10939,16 +11859,17 @@
       <c r="C189" s="21">
         <v>4.75</v>
       </c>
-      <c r="D189" s="31">
+      <c r="D189" s="30">
         <v>422.1</v>
       </c>
-      <c r="E189" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F189" s="29" t="s">
+      <c r="E189" s="7">
+        <f t="shared" si="13"/>
+        <v>417.35</v>
+      </c>
+      <c r="F189" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G189" s="27">
+      <c r="G189" s="26">
         <v>41313</v>
       </c>
       <c r="H189" s="20"/>
@@ -10981,16 +11902,17 @@
       <c r="C190" s="21">
         <v>4.75</v>
       </c>
-      <c r="D190" s="31">
+      <c r="D190" s="30">
         <v>359.1</v>
       </c>
-      <c r="E190" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F190" s="29" t="s">
+      <c r="E190" s="7">
+        <f t="shared" si="13"/>
+        <v>354.35</v>
+      </c>
+      <c r="F190" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G190" s="27">
+      <c r="G190" s="26">
         <v>41313</v>
       </c>
       <c r="H190" s="20"/>
@@ -11023,16 +11945,17 @@
       <c r="C191" s="21">
         <v>4.75</v>
       </c>
-      <c r="D191" s="31">
+      <c r="D191" s="30">
         <v>438.8</v>
       </c>
-      <c r="E191" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F191" s="29" t="s">
+      <c r="E191" s="7">
+        <f t="shared" si="13"/>
+        <v>434.05</v>
+      </c>
+      <c r="F191" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G191" s="27">
+      <c r="G191" s="26">
         <v>41313</v>
       </c>
       <c r="H191" s="20"/>
@@ -11065,16 +11988,17 @@
       <c r="C192" s="21">
         <v>4.75</v>
       </c>
-      <c r="D192" s="31">
+      <c r="D192" s="30">
         <v>398.8</v>
       </c>
-      <c r="E192" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F192" s="29" t="s">
+      <c r="E192" s="7">
+        <f t="shared" si="13"/>
+        <v>394.05</v>
+      </c>
+      <c r="F192" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G192" s="27">
+      <c r="G192" s="26">
         <v>41313</v>
       </c>
       <c r="H192" s="20"/>
@@ -11107,16 +12031,17 @@
       <c r="C193" s="21">
         <v>4.75</v>
       </c>
-      <c r="D193" s="31">
+      <c r="D193" s="30">
         <v>355.7</v>
       </c>
-      <c r="E193" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F193" s="29" t="s">
+      <c r="E193" s="7">
+        <f t="shared" si="13"/>
+        <v>350.95</v>
+      </c>
+      <c r="F193" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G193" s="27">
+      <c r="G193" s="26">
         <v>41313</v>
       </c>
       <c r="H193" s="20"/>
@@ -11149,16 +12074,17 @@
       <c r="C194" s="21">
         <v>4.75</v>
       </c>
-      <c r="D194" s="31">
+      <c r="D194" s="30">
         <v>448.6</v>
       </c>
-      <c r="E194" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F194" s="29" t="s">
+      <c r="E194" s="7">
+        <f t="shared" si="13"/>
+        <v>443.85</v>
+      </c>
+      <c r="F194" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G194" s="27">
+      <c r="G194" s="26">
         <v>41313</v>
       </c>
       <c r="H194" s="20"/>
@@ -11191,16 +12117,17 @@
       <c r="C195" s="21">
         <v>4.75</v>
       </c>
-      <c r="D195" s="31">
+      <c r="D195" s="30">
         <v>339.8</v>
       </c>
-      <c r="E195" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F195" s="29" t="s">
+      <c r="E195" s="7">
+        <f t="shared" si="13"/>
+        <v>335.05</v>
+      </c>
+      <c r="F195" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G195" s="27">
+      <c r="G195" s="26">
         <v>41313</v>
       </c>
       <c r="H195" s="20"/>
@@ -11233,16 +12160,17 @@
       <c r="C196" s="21">
         <v>4.75</v>
       </c>
-      <c r="D196" s="31">
+      <c r="D196" s="30">
         <v>530.1</v>
       </c>
-      <c r="E196" s="22">
-        <v>-4.8</v>
-      </c>
-      <c r="F196" s="29" t="s">
+      <c r="E196" s="7">
+        <f>D196-C196</f>
+        <v>525.35</v>
+      </c>
+      <c r="F196" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="G196" s="27">
+      <c r="G196" s="26">
         <v>41313</v>
       </c>
       <c r="H196" s="20"/>
@@ -11273,7 +12201,8 @@
       <c r="C197" s="19"/>
       <c r="D197" s="15"/>
       <c r="E197" s="15">
-        <v>-99.8</v>
+        <f>SUM(E174:E196)</f>
+        <v>9264.3500000000022</v>
       </c>
       <c r="F197" s="14"/>
       <c r="G197" s="14"/>
@@ -11299,62 +12228,62 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F52:K52 N52:P52">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="23" priority="10">
       <formula>($A52=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:M52">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="21" priority="9">
       <formula>($A52=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:K29 N29:P29">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="19" priority="12">
       <formula>($A29=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L29:M29">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="17" priority="11">
       <formula>($A29=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67:K67 N67:P67">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="15" priority="8">
       <formula>($A67=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67:M67">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>($A67=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85:K85 N85:P85">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="11" priority="6">
       <formula>($A85=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L85:M85">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="9" priority="5">
       <formula>($A85=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F104:K104 N104:P104">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>($A104=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L104:M104">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>($A104=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F127:K127 N127:P127">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>($A127=60)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L127:M127">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>($A127=60)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11366,58 +12295,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
-        <v>20</v>
-      </c>
-      <c r="B5">
-        <v>130.69999999999999</v>
-      </c>
-      <c r="C5">
-        <f>B5/A5</f>
-        <v>6.5349999999999993</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>